--- a/capiq_data/in_process_data/IQ95673.xlsx
+++ b/capiq_data/in_process_data/IQ95673.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D075DE8-9C85-45A8-95AE-FF571740ED1E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67FD998-905C-4D58-A99A-9506BAA6D030}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"df366583-b8c7-4713-be09-02106abebda2"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"382703b4-36ff-41a6-8398-8ddca5c239d9"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
+  </si>
+  <si>
+    <t>FQ42010</t>
+  </si>
+  <si>
+    <t>FQ12011</t>
   </si>
   <si>
     <t>FQ22011</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,34 +853,34 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>109.59</v>
+        <v>122.176</v>
       </c>
       <c r="D2">
-        <v>612.93600000000004</v>
+        <v>438.31700000000001</v>
       </c>
       <c r="E2">
-        <v>293.26400000000001</v>
+        <v>127.42</v>
       </c>
       <c r="F2">
-        <v>380.27499999999998</v>
+        <v>295.80500000000001</v>
       </c>
       <c r="G2">
-        <v>1561.6859999999999</v>
+        <v>1011.266</v>
       </c>
       <c r="H2">
-        <v>3365.6930000000002</v>
+        <v>1504.0139999999999</v>
       </c>
       <c r="I2">
-        <v>96.468999999999994</v>
+        <v>81.197000000000003</v>
       </c>
       <c r="J2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -772,78 +892,78 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>335.35</v>
+        <v>230.57</v>
       </c>
       <c r="O2">
-        <v>980.72699999999998</v>
+        <v>254.07</v>
       </c>
       <c r="P2">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>80.063999999999993</v>
+        <v>16.838000000000001</v>
       </c>
       <c r="R2">
-        <v>40537</v>
+        <v>36890</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>2384.9659999999999</v>
+        <v>1249.944</v>
       </c>
       <c r="U2">
-        <v>798.34400000000005</v>
+        <v>59.701999999999998</v>
       </c>
       <c r="V2">
-        <v>199.98400000000001</v>
+        <v>277.79199999999997</v>
       </c>
       <c r="W2">
-        <v>-62.277999999999999</v>
+        <v>-1.9730000000000001</v>
       </c>
       <c r="X2">
-        <v>-85.566000000000003</v>
+        <v>-85.941000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>-43.872</v>
       </c>
       <c r="AA2">
-        <v>109.59</v>
+        <v>122.176</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>136.27600000000001</v>
+        <v>109.85599999999999</v>
       </c>
       <c r="D3">
-        <v>606.77499999999998</v>
+        <v>397.84</v>
       </c>
       <c r="E3">
-        <v>304.59100000000001</v>
+        <v>143.97800000000001</v>
       </c>
       <c r="F3">
-        <v>372.65</v>
+        <v>259.45</v>
       </c>
       <c r="G3">
-        <v>1676.5930000000001</v>
+        <v>1111.1880000000001</v>
       </c>
       <c r="H3">
-        <v>3452.4169999999999</v>
+        <v>1630.7470000000001</v>
       </c>
       <c r="I3">
-        <v>107.444</v>
+        <v>74.908000000000001</v>
       </c>
       <c r="J3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -855,78 +975,78 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>391.15300000000002</v>
+        <v>223.94800000000001</v>
       </c>
       <c r="O3">
-        <v>987.37699999999995</v>
+        <v>247.44800000000001</v>
       </c>
       <c r="P3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>70.578999999999994</v>
+        <v>9.6479999999999997</v>
       </c>
       <c r="R3">
-        <v>40628</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>2465.04</v>
+        <v>1383.299</v>
       </c>
       <c r="U3">
-        <v>868.923</v>
+        <v>61.155000000000001</v>
       </c>
       <c r="V3">
-        <v>256.697</v>
+        <v>189.93600000000001</v>
       </c>
       <c r="W3">
-        <v>-62.323</v>
+        <v>-2.0409999999999999</v>
       </c>
       <c r="X3">
-        <v>-106.818</v>
+        <v>-7.8479999999999999</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-49.786999999999999</v>
+        <v>-79.781999999999996</v>
       </c>
       <c r="AA3">
-        <v>136.27600000000001</v>
+        <v>109.85599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>125.593</v>
+        <v>-16.166</v>
       </c>
       <c r="D4">
-        <v>626.49099999999999</v>
+        <v>318.14699999999999</v>
       </c>
       <c r="E4">
-        <v>297.63200000000001</v>
+        <v>152.488</v>
       </c>
       <c r="F4">
-        <v>390.82499999999999</v>
+        <v>261.11599999999999</v>
       </c>
       <c r="G4">
-        <v>1727.8520000000001</v>
+        <v>1699.0920000000001</v>
       </c>
       <c r="H4">
-        <v>3527.7429999999999</v>
+        <v>2430.5309999999999</v>
       </c>
       <c r="I4">
-        <v>110.15300000000001</v>
+        <v>100.92100000000001</v>
       </c>
       <c r="J4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -938,78 +1058,78 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>414.34</v>
+        <v>325.37700000000001</v>
       </c>
       <c r="O4">
-        <v>1016.925</v>
+        <v>329.37700000000001</v>
       </c>
       <c r="P4">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>93.617999999999995</v>
+        <v>-4.7140000000000004</v>
       </c>
       <c r="R4">
-        <v>40719</v>
+        <v>37072</v>
       </c>
       <c r="S4">
-        <v>9370</v>
+        <v>6317</v>
       </c>
       <c r="T4">
-        <v>2510.8180000000002</v>
+        <v>2101.154</v>
       </c>
       <c r="U4">
-        <v>962.54100000000005</v>
+        <v>93.796000000000006</v>
       </c>
       <c r="V4">
-        <v>246.274</v>
+        <v>139.37799999999999</v>
       </c>
       <c r="W4">
-        <v>-62.076999999999998</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-99.076999999999998</v>
+        <v>21.891999999999999</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>-114.905</v>
       </c>
       <c r="AA4">
-        <v>125.593</v>
+        <v>-16.166</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>133.446</v>
+        <v>61.293999999999997</v>
       </c>
       <c r="D5">
-        <v>636.00199999999995</v>
+        <v>239.42599999999999</v>
       </c>
       <c r="E5">
-        <v>328.98899999999998</v>
+        <v>99.462000000000003</v>
       </c>
       <c r="F5">
-        <v>395.47300000000001</v>
+        <v>167.58099999999999</v>
       </c>
       <c r="G5">
-        <v>1503.942</v>
+        <v>1496.691</v>
       </c>
       <c r="H5">
-        <v>3521.5830000000001</v>
+        <v>2238.92</v>
       </c>
       <c r="I5">
-        <v>126.794</v>
+        <v>82.531999999999996</v>
       </c>
       <c r="J5">
-        <v>311.79199999999997</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1018,81 +1138,81 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-16.216999999999999</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>386.66699999999997</v>
+        <v>295.32</v>
       </c>
       <c r="O5">
-        <v>1009.027</v>
+        <v>299.32</v>
       </c>
       <c r="P5">
-        <v>315.91000000000003</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>-252.5</v>
+        <v>45.658999999999999</v>
       </c>
       <c r="R5">
-        <v>40810</v>
+        <v>37163</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>2512.556</v>
+        <v>1939.6</v>
       </c>
       <c r="U5">
-        <v>710.04100000000005</v>
+        <v>139.45500000000001</v>
       </c>
       <c r="V5">
-        <v>120.809</v>
+        <v>141.333</v>
       </c>
       <c r="W5">
-        <v>-64.781000000000006</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>-169.71600000000001</v>
+        <v>-261.572</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>190.886</v>
       </c>
       <c r="AA5">
-        <v>133.446</v>
+        <v>61.293999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>88.13</v>
+        <v>62.554000000000002</v>
       </c>
       <c r="D6">
-        <v>591.35900000000004</v>
+        <v>247.108</v>
       </c>
       <c r="E6">
-        <v>246.22900000000001</v>
+        <v>94.754000000000005</v>
       </c>
       <c r="F6">
-        <v>347.96</v>
+        <v>173.14699999999999</v>
       </c>
       <c r="G6">
-        <v>1465.2</v>
+        <v>1521.2</v>
       </c>
       <c r="H6">
-        <v>3520.6550000000002</v>
+        <v>2268.578</v>
       </c>
       <c r="I6">
-        <v>118.42700000000001</v>
+        <v>61.005000000000003</v>
       </c>
       <c r="J6">
-        <v>308.7</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1104,78 +1224,78 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>379.65899999999999</v>
+        <v>265.95400000000001</v>
       </c>
       <c r="O6">
-        <v>1016.189</v>
+        <v>269.95400000000001</v>
       </c>
       <c r="P6">
-        <v>310.64499999999998</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>31.119</v>
+        <v>19.273</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37254</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>2504.4659999999999</v>
+        <v>1998.624</v>
       </c>
       <c r="U6">
-        <v>741.16</v>
+        <v>158.72800000000001</v>
       </c>
       <c r="V6">
-        <v>249.32</v>
+        <v>82.49</v>
       </c>
       <c r="W6">
-        <v>-64.158000000000001</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-117.648</v>
+        <v>-38.177</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-21.882999999999999</v>
+        <v>-5.57</v>
       </c>
       <c r="AA6">
-        <v>88.13</v>
+        <v>62.554000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>66.727000000000004</v>
       </c>
       <c r="D7">
-        <v>571.21199999999999</v>
+        <v>258.48099999999999</v>
       </c>
       <c r="E7">
-        <v>296.255</v>
+        <v>108.569</v>
       </c>
       <c r="F7">
-        <v>335.43</v>
+        <v>181.49199999999999</v>
       </c>
       <c r="G7">
-        <v>1637.2460000000001</v>
+        <v>1451.43</v>
       </c>
       <c r="H7">
-        <v>3670.2370000000001</v>
+        <v>2216.6640000000002</v>
       </c>
       <c r="I7">
-        <v>132.90600000000001</v>
+        <v>45.332000000000001</v>
       </c>
       <c r="J7">
-        <v>308.7</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1187,78 +1307,78 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>437.62700000000001</v>
+        <v>224.06399999999999</v>
       </c>
       <c r="O7">
-        <v>1167.039</v>
+        <v>231.36199999999999</v>
       </c>
       <c r="P7">
-        <v>310.64499999999998</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>-87.539000000000001</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37345</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2503.1979999999999</v>
+        <v>1985.3019999999999</v>
       </c>
       <c r="U7">
-        <v>860.55100000000004</v>
+        <v>71.188999999999993</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>64.965999999999994</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>-112.40900000000001</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-9.0640000000000001</v>
       </c>
       <c r="AA7">
-        <v>54.517000000000003</v>
+        <v>66.727000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>110.634</v>
+        <v>68.608000000000004</v>
       </c>
       <c r="D8">
-        <v>604.95600000000002</v>
+        <v>280.089</v>
       </c>
       <c r="E8">
-        <v>317.46100000000001</v>
+        <v>129.81200000000001</v>
       </c>
       <c r="F8">
-        <v>371.98899999999998</v>
+        <v>190.661</v>
       </c>
       <c r="G8">
-        <v>1699.366</v>
+        <v>1235.664</v>
       </c>
       <c r="H8">
-        <v>3737.9459999999999</v>
+        <v>2010.8119999999999</v>
       </c>
       <c r="I8">
-        <v>147.08600000000001</v>
+        <v>45.283999999999999</v>
       </c>
       <c r="J8">
-        <v>5.5919999999999996</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1270,78 +1390,78 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>755.38900000000001</v>
+        <v>229.02699999999999</v>
       </c>
       <c r="O8">
-        <v>1199.6690000000001</v>
+        <v>269.661</v>
       </c>
       <c r="P8">
-        <v>309.08800000000002</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>20.509</v>
+        <v>102.61799999999999</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37436</v>
       </c>
       <c r="S8">
-        <v>9065</v>
+        <v>6067</v>
       </c>
       <c r="T8">
-        <v>2538.277</v>
+        <v>1741.1510000000001</v>
       </c>
       <c r="U8">
-        <v>881.06</v>
+        <v>173.80699999999999</v>
       </c>
       <c r="V8">
-        <v>190.09399999999999</v>
+        <v>114.974</v>
       </c>
       <c r="W8">
-        <v>-64.408000000000001</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>-90.617999999999995</v>
+        <v>-342.56099999999998</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-1.5</v>
+        <v>354.67599999999999</v>
       </c>
       <c r="AA8">
-        <v>110.634</v>
+        <v>68.608000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>127.88800000000001</v>
+        <v>73.177000000000007</v>
       </c>
       <c r="D9">
-        <v>623.07500000000005</v>
+        <v>285.88099999999997</v>
       </c>
       <c r="E9">
-        <v>316.53800000000001</v>
+        <v>135.43</v>
       </c>
       <c r="F9">
-        <v>385.69099999999997</v>
+        <v>198.75800000000001</v>
       </c>
       <c r="G9">
-        <v>1666.796</v>
+        <v>1285.8530000000001</v>
       </c>
       <c r="H9">
-        <v>3704.5740000000001</v>
+        <v>2089.25</v>
       </c>
       <c r="I9">
-        <v>127.306</v>
+        <v>48.258000000000003</v>
       </c>
       <c r="J9">
-        <v>5.5919999999999996</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1350,81 +1470,81 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-0.224</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>682.39700000000005</v>
+        <v>232.19800000000001</v>
       </c>
       <c r="O9">
-        <v>1136.1369999999999</v>
+        <v>302.58100000000002</v>
       </c>
       <c r="P9">
-        <v>308.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>-31.21</v>
+        <v>-13.375999999999999</v>
       </c>
       <c r="R9">
-        <v>41181</v>
+        <v>37527</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2568.4369999999999</v>
+        <v>1786.6690000000001</v>
       </c>
       <c r="U9">
-        <v>849.85</v>
+        <v>160.43100000000001</v>
       </c>
       <c r="V9">
-        <v>136.745</v>
+        <v>125.41</v>
       </c>
       <c r="W9">
-        <v>-70.198999999999998</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>-117.596</v>
+        <v>-58.293999999999997</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>-36.543999999999997</v>
       </c>
       <c r="AA9">
-        <v>127.88800000000001</v>
+        <v>73.177000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>76.622</v>
+        <v>77.076999999999998</v>
       </c>
       <c r="D10">
-        <v>605.30600000000004</v>
+        <v>286.077</v>
       </c>
       <c r="E10">
-        <v>264.54500000000002</v>
+        <v>122.577</v>
       </c>
       <c r="F10">
-        <v>363.375</v>
+        <v>199.536</v>
       </c>
       <c r="G10">
-        <v>1723.9949999999999</v>
+        <v>1390.49</v>
       </c>
       <c r="H10">
-        <v>3738.5529999999999</v>
+        <v>2186.4160000000002</v>
       </c>
       <c r="I10">
-        <v>110.495</v>
+        <v>32.942</v>
       </c>
       <c r="J10">
-        <v>3.9969999999999999</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1436,78 +1556,78 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>673.81899999999996</v>
+        <v>212.30799999999999</v>
       </c>
       <c r="O10">
-        <v>1157.3409999999999</v>
+        <v>286.96699999999998</v>
       </c>
       <c r="P10">
-        <v>308.791</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>105.25700000000001</v>
+        <v>19.722000000000001</v>
       </c>
       <c r="R10">
-        <v>41272</v>
+        <v>37618</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>2581.212</v>
+        <v>1899.4490000000001</v>
       </c>
       <c r="U10">
-        <v>955.10699999999997</v>
+        <v>180.15299999999999</v>
       </c>
       <c r="V10">
-        <v>255.09700000000001</v>
+        <v>159.79300000000001</v>
       </c>
       <c r="W10">
-        <v>-70.063000000000002</v>
+        <v>-6.415</v>
       </c>
       <c r="X10">
-        <v>-91.852999999999994</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>-137.01499999999999</v>
       </c>
       <c r="AA10">
-        <v>76.622</v>
+        <v>77.076999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>77.603999999999999</v>
       </c>
       <c r="D11">
-        <v>604.88400000000001</v>
+        <v>286.23200000000003</v>
       </c>
       <c r="E11">
-        <v>300.04599999999999</v>
+        <v>123.864</v>
       </c>
       <c r="F11">
-        <v>376.10199999999998</v>
+        <v>200.08600000000001</v>
       </c>
       <c r="G11">
-        <v>2335.9580000000001</v>
+        <v>1494.289</v>
       </c>
       <c r="H11">
-        <v>4334.1180000000004</v>
+        <v>2283.933</v>
       </c>
       <c r="I11">
-        <v>114.629</v>
+        <v>37.768000000000001</v>
       </c>
       <c r="J11">
-        <v>503.57299999999998</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1519,78 +1639,78 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>706.96299999999997</v>
+        <v>215.31700000000001</v>
       </c>
       <c r="O11">
-        <v>1721.5519999999999</v>
+        <v>293.03699999999998</v>
       </c>
       <c r="P11">
-        <v>807.88699999999994</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>54.88</v>
       </c>
       <c r="R11">
-        <v>41363</v>
+        <v>37709</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2612.5659999999998</v>
+        <v>1990.896</v>
       </c>
       <c r="U11">
-        <v>1547.98</v>
+        <v>235.03299999999999</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>128.03899999999999</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>-6.4539999999999997</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>-6.5650000000000004</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>-57.917000000000002</v>
       </c>
       <c r="AA11">
-        <v>131.38800000000001</v>
+        <v>77.603999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>119.014</v>
+        <v>81.742999999999995</v>
       </c>
       <c r="D12">
-        <v>608.19399999999996</v>
+        <v>295.029</v>
       </c>
       <c r="E12">
-        <v>285.43799999999999</v>
+        <v>126.76</v>
       </c>
       <c r="F12">
-        <v>371.399</v>
+        <v>206.57499999999999</v>
       </c>
       <c r="G12">
-        <v>1939.9059999999999</v>
+        <v>1564.6420000000001</v>
       </c>
       <c r="H12">
-        <v>3935.91</v>
+        <v>2367.962</v>
       </c>
       <c r="I12">
-        <v>105.322</v>
+        <v>42.040999999999997</v>
       </c>
       <c r="J12">
-        <v>503.57299999999998</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1602,78 +1722,78 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>404.89299999999997</v>
+        <v>215.917</v>
       </c>
       <c r="O12">
-        <v>1427.912</v>
+        <v>297.55</v>
       </c>
       <c r="P12">
-        <v>505.58800000000002</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>-372.99400000000003</v>
+        <v>-24.192</v>
       </c>
       <c r="R12">
-        <v>41454</v>
+        <v>37800</v>
       </c>
       <c r="S12">
-        <v>9019</v>
+        <v>6202</v>
       </c>
       <c r="T12">
-        <v>2507.998</v>
+        <v>2070.4119999999998</v>
       </c>
       <c r="U12">
-        <v>1174.9860000000001</v>
+        <v>210.84100000000001</v>
       </c>
       <c r="V12">
-        <v>214.4</v>
+        <v>169.25200000000001</v>
       </c>
       <c r="W12">
-        <v>-69.531999999999996</v>
+        <v>-13.01</v>
       </c>
       <c r="X12">
-        <v>-551.11400000000003</v>
+        <v>-35.908000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>8.5000000000000006E-2</v>
+        <v>-128.619</v>
       </c>
       <c r="AA12">
-        <v>119.014</v>
+        <v>81.742999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>103.12</v>
+        <v>87.373000000000005</v>
       </c>
       <c r="D13">
-        <v>585.24099999999999</v>
+        <v>310.16899999999998</v>
       </c>
       <c r="E13">
-        <v>297.88799999999998</v>
+        <v>130.982</v>
       </c>
       <c r="F13">
-        <v>347.19600000000003</v>
+        <v>217.14099999999999</v>
       </c>
       <c r="G13">
-        <v>1781.768</v>
+        <v>1694.556</v>
       </c>
       <c r="H13">
-        <v>3763.9969999999998</v>
+        <v>2504.4569999999999</v>
       </c>
       <c r="I13">
-        <v>101.06</v>
+        <v>49.622999999999998</v>
       </c>
       <c r="J13">
-        <v>500.95499999999998</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1685,78 +1805,78 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>335.35700000000003</v>
+        <v>229.607</v>
       </c>
       <c r="O13">
-        <v>1365.5609999999999</v>
+        <v>315.24</v>
       </c>
       <c r="P13">
-        <v>505.75900000000001</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>-165.43899999999999</v>
+        <v>-47.006</v>
       </c>
       <c r="R13">
-        <v>41545</v>
+        <v>37891</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2398.4360000000001</v>
+        <v>2189.2170000000001</v>
       </c>
       <c r="U13">
-        <v>1009.547</v>
+        <v>163.83500000000001</v>
       </c>
       <c r="V13">
-        <v>95.894000000000005</v>
+        <v>155.512</v>
       </c>
       <c r="W13">
-        <v>-73.744</v>
+        <v>-26.134</v>
       </c>
       <c r="X13">
-        <v>-228.05199999999999</v>
+        <v>-2.2149999999999999</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-178.727</v>
       </c>
       <c r="AA13">
-        <v>103.12</v>
+        <v>87.373000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>44.353000000000002</v>
+        <v>98.519000000000005</v>
       </c>
       <c r="D14">
-        <v>620.274</v>
+        <v>338.108</v>
       </c>
       <c r="E14">
-        <v>288.28500000000003</v>
+        <v>133.43700000000001</v>
       </c>
       <c r="F14">
-        <v>341.77199999999999</v>
+        <v>235.07900000000001</v>
       </c>
       <c r="G14">
-        <v>1890.136</v>
+        <v>1728.0940000000001</v>
       </c>
       <c r="H14">
-        <v>4306.8819999999996</v>
+        <v>2595.8249999999998</v>
       </c>
       <c r="I14">
-        <v>99.009</v>
+        <v>57.210999999999999</v>
       </c>
       <c r="J14">
-        <v>1000.871</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1768,78 +1888,78 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>381.11599999999999</v>
+        <v>240.00899999999999</v>
       </c>
       <c r="O14">
-        <v>1950.818</v>
+        <v>332.142</v>
       </c>
       <c r="P14">
-        <v>1003.836</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>140.36199999999999</v>
+        <v>-4.0460000000000003</v>
       </c>
       <c r="R14">
-        <v>41636</v>
+        <v>37982</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2356.0639999999999</v>
+        <v>2263.683</v>
       </c>
       <c r="U14">
-        <v>1149.9090000000001</v>
+        <v>159.78899999999999</v>
       </c>
       <c r="V14">
-        <v>234.43100000000001</v>
+        <v>172.416</v>
       </c>
       <c r="W14">
-        <v>-73.323999999999998</v>
+        <v>-26.385000000000002</v>
       </c>
       <c r="X14">
-        <v>378.57</v>
+        <v>-64.620999999999995</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>27</v>
+        <v>-39.731999999999999</v>
       </c>
       <c r="AA14">
-        <v>44.353000000000002</v>
+        <v>98.519000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>122.544</v>
+        <v>109.163</v>
       </c>
       <c r="D15">
-        <v>605.68100000000004</v>
+        <v>370.02300000000002</v>
       </c>
       <c r="E15">
-        <v>304.12799999999999</v>
+        <v>162.423</v>
       </c>
       <c r="F15">
-        <v>345.43700000000001</v>
+        <v>258.262</v>
       </c>
       <c r="G15">
-        <v>1979.278</v>
+        <v>1517.9449999999999</v>
       </c>
       <c r="H15">
-        <v>4354.5649999999996</v>
+        <v>2439.759</v>
       </c>
       <c r="I15">
-        <v>94.314999999999998</v>
+        <v>85.429000000000002</v>
       </c>
       <c r="J15">
-        <v>1000.871</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1851,78 +1971,78 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>391.38799999999998</v>
+        <v>287.14499999999998</v>
       </c>
       <c r="O15">
-        <v>1953.961</v>
+        <v>393.95</v>
       </c>
       <c r="P15">
-        <v>1003.397</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>81.338999999999999</v>
+        <v>-50.756</v>
       </c>
       <c r="R15">
-        <v>41727</v>
+        <v>38073</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2400.6039999999998</v>
+        <v>2045.809</v>
       </c>
       <c r="U15">
-        <v>1231.248</v>
+        <v>109.033</v>
       </c>
       <c r="V15">
-        <v>211.69800000000001</v>
+        <v>189.667</v>
       </c>
       <c r="W15">
-        <v>-73.480999999999995</v>
+        <v>-26.260999999999999</v>
       </c>
       <c r="X15">
-        <v>-98.82</v>
+        <v>-369.58199999999999</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>0</v>
+        <v>197.53899999999999</v>
       </c>
       <c r="AA15">
-        <v>122.544</v>
+        <v>109.163</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>84.793000000000006</v>
+        <v>124.697</v>
       </c>
       <c r="D16">
-        <v>642.46699999999998</v>
+        <v>420.96300000000002</v>
       </c>
       <c r="E16">
-        <v>295.82799999999997</v>
+        <v>197.15799999999999</v>
       </c>
       <c r="F16">
-        <v>369.36</v>
+        <v>295.423</v>
       </c>
       <c r="G16">
-        <v>2086.7020000000002</v>
+        <v>1578.114</v>
       </c>
       <c r="H16">
-        <v>4405.6180000000004</v>
+        <v>2549.462</v>
       </c>
       <c r="I16">
-        <v>102.07599999999999</v>
+        <v>93.855999999999995</v>
       </c>
       <c r="J16">
-        <v>1001.026</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1934,78 +2054,78 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>398.63499999999999</v>
+        <v>318.745</v>
       </c>
       <c r="O16">
-        <v>1975.7070000000001</v>
+        <v>437.14400000000001</v>
       </c>
       <c r="P16">
-        <v>1001.398</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>91.224000000000004</v>
+        <v>38.701000000000001</v>
       </c>
       <c r="R16">
-        <v>41818</v>
+        <v>38164</v>
       </c>
       <c r="S16">
-        <v>8812</v>
+        <v>7599</v>
       </c>
       <c r="T16">
-        <v>2429.9110000000001</v>
+        <v>2112.3180000000002</v>
       </c>
       <c r="U16">
-        <v>1322.472</v>
+        <v>147.73400000000001</v>
       </c>
       <c r="V16">
-        <v>234.084</v>
+        <v>177.85900000000001</v>
       </c>
       <c r="W16">
-        <v>-73.626000000000005</v>
+        <v>-25.79</v>
       </c>
       <c r="X16">
-        <v>-70.88</v>
+        <v>-85.54</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>-49.953000000000003</v>
+        <v>13.061999999999999</v>
       </c>
       <c r="AA16">
-        <v>84.793000000000006</v>
+        <v>124.697</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>99.98</v>
+        <v>144.54499999999999</v>
       </c>
       <c r="D17">
-        <v>580.27499999999998</v>
+        <v>435.06700000000001</v>
       </c>
       <c r="E17">
-        <v>281.93200000000002</v>
+        <v>200.49100000000001</v>
       </c>
       <c r="F17">
-        <v>338.82100000000003</v>
+        <v>314.815</v>
       </c>
       <c r="G17">
-        <v>2027.779</v>
+        <v>1686.3440000000001</v>
       </c>
       <c r="H17">
-        <v>4305.125</v>
+        <v>2706.0309999999999</v>
       </c>
       <c r="I17">
-        <v>96.346999999999994</v>
+        <v>90.004000000000005</v>
       </c>
       <c r="J17">
-        <v>1001.026</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2014,81 +2134,81 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>-0.437</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>335.13</v>
+        <v>357.19099999999997</v>
       </c>
       <c r="O17">
-        <v>1893.721</v>
+        <v>479.84</v>
       </c>
       <c r="P17">
-        <v>1001.026</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>-78.588999999999999</v>
+        <v>98.671000000000006</v>
       </c>
       <c r="R17">
-        <v>41909</v>
+        <v>38255</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2411.404</v>
+        <v>2226.1909999999998</v>
       </c>
       <c r="U17">
-        <v>1243.883</v>
+        <v>246.405</v>
       </c>
       <c r="V17">
-        <v>116.997</v>
+        <v>208.26599999999999</v>
       </c>
       <c r="W17">
-        <v>-79.763000000000005</v>
+        <v>-25.946000000000002</v>
       </c>
       <c r="X17">
-        <v>-138.97</v>
+        <v>-58.529000000000003</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-25.141999999999999</v>
+        <v>15.387</v>
       </c>
       <c r="AA17">
-        <v>99.98</v>
+        <v>144.54499999999999</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>-72.034000000000006</v>
+        <v>144.61500000000001</v>
       </c>
       <c r="D18">
-        <v>566.80899999999997</v>
+        <v>436.06099999999998</v>
       </c>
       <c r="E18">
-        <v>258.50599999999997</v>
+        <v>179.68199999999999</v>
       </c>
       <c r="F18">
-        <v>322.97199999999998</v>
+        <v>316.62400000000002</v>
       </c>
       <c r="G18">
-        <v>2072.9899999999998</v>
+        <v>1777.1949999999999</v>
       </c>
       <c r="H18">
-        <v>4124.527</v>
+        <v>2808.8539999999998</v>
       </c>
       <c r="I18">
-        <v>82.525999999999996</v>
+        <v>61.74</v>
       </c>
       <c r="J18">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2100,78 +2220,78 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>334.23899999999998</v>
+        <v>297.59699999999998</v>
       </c>
       <c r="O18">
-        <v>1882.7860000000001</v>
+        <v>424.166</v>
       </c>
       <c r="P18">
-        <v>1001.026</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>61.987000000000002</v>
+        <v>-81.991</v>
       </c>
       <c r="R18">
-        <v>42000</v>
+        <v>38346</v>
       </c>
       <c r="S18">
         <v>0</v>
       </c>
       <c r="T18">
-        <v>2241.741</v>
+        <v>2384.6880000000001</v>
       </c>
       <c r="U18">
-        <v>1305.8699999999999</v>
+        <v>164.41399999999999</v>
       </c>
       <c r="V18">
-        <v>172.85499999999999</v>
+        <v>153.09100000000001</v>
       </c>
       <c r="W18">
-        <v>-79.168999999999997</v>
+        <v>-32.572000000000003</v>
       </c>
       <c r="X18">
-        <v>-116.75</v>
+        <v>-17.36</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-188.172</v>
       </c>
       <c r="AA18">
-        <v>-72.034000000000006</v>
+        <v>144.61500000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>79.433000000000007</v>
+        <v>125.53700000000001</v>
       </c>
       <c r="D19">
-        <v>577.26300000000003</v>
+        <v>400.18799999999999</v>
       </c>
       <c r="E19">
-        <v>278.42700000000002</v>
+        <v>192.38</v>
       </c>
       <c r="F19">
-        <v>325.10199999999998</v>
+        <v>288.29199999999997</v>
       </c>
       <c r="G19">
-        <v>2180.6880000000001</v>
+        <v>1912.674</v>
       </c>
       <c r="H19">
-        <v>4167.7169999999996</v>
+        <v>2939.701</v>
       </c>
       <c r="I19">
-        <v>85.361000000000004</v>
+        <v>50.156999999999996</v>
       </c>
       <c r="J19">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2183,78 +2303,78 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>355.334</v>
+        <v>291.72899999999998</v>
       </c>
       <c r="O19">
-        <v>1913.8679999999999</v>
+        <v>435.83600000000001</v>
       </c>
       <c r="P19">
-        <v>1001.026</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>86.326999999999998</v>
+        <v>-21.931999999999999</v>
       </c>
       <c r="R19">
-        <v>42091</v>
+        <v>38437</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2253.8490000000002</v>
+        <v>2503.8649999999998</v>
       </c>
       <c r="U19">
-        <v>1392.1969999999999</v>
+        <v>142.482</v>
       </c>
       <c r="V19">
-        <v>182.06399999999999</v>
+        <v>170.184</v>
       </c>
       <c r="W19">
-        <v>-79.418999999999997</v>
+        <v>-32.682000000000002</v>
       </c>
       <c r="X19">
-        <v>-87.466999999999999</v>
+        <v>-29.957999999999998</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-0.2</v>
+        <v>-147.96299999999999</v>
       </c>
       <c r="AA19">
-        <v>79.433000000000007</v>
+        <v>125.53700000000001</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>98.659000000000006</v>
+        <v>126.14</v>
       </c>
       <c r="D20">
-        <v>582.51700000000005</v>
+        <v>400.39699999999999</v>
       </c>
       <c r="E20">
-        <v>278.84399999999999</v>
+        <v>192.345</v>
       </c>
       <c r="F20">
-        <v>336.46600000000001</v>
+        <v>288.31799999999998</v>
       </c>
       <c r="G20">
-        <v>2319.4029999999998</v>
+        <v>1973.7660000000001</v>
       </c>
       <c r="H20">
-        <v>4216.0709999999999</v>
+        <v>3004.0709999999999</v>
       </c>
       <c r="I20">
-        <v>88.322000000000003</v>
+        <v>56.265999999999998</v>
       </c>
       <c r="J20">
-        <v>987.68700000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,78 +2386,78 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>383.17700000000002</v>
+        <v>285.20299999999997</v>
       </c>
       <c r="O20">
-        <v>1926.0509999999999</v>
+        <v>419.88900000000001</v>
       </c>
       <c r="P20">
-        <v>988.71100000000001</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>158.768</v>
+        <v>43.069000000000003</v>
       </c>
       <c r="R20">
-        <v>42182</v>
+        <v>38528</v>
       </c>
       <c r="S20">
-        <v>8250</v>
+        <v>7980</v>
       </c>
       <c r="T20">
-        <v>2290.02</v>
+        <v>2584.1819999999998</v>
       </c>
       <c r="U20">
-        <v>1550.9649999999999</v>
+        <v>185.55099999999999</v>
       </c>
       <c r="V20">
-        <v>221.79</v>
+        <v>167.51900000000001</v>
       </c>
       <c r="W20">
-        <v>-79.558000000000007</v>
+        <v>-32.743000000000002</v>
       </c>
       <c r="X20">
-        <v>-85.953000000000003</v>
+        <v>-80.56</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>-21.335000000000001</v>
       </c>
       <c r="AA20">
-        <v>98.659000000000006</v>
+        <v>126.14</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>-72.143000000000001</v>
+        <v>86.778000000000006</v>
       </c>
       <c r="D21">
-        <v>562.51</v>
+        <v>424.09500000000003</v>
       </c>
       <c r="E21">
-        <v>282.471</v>
+        <v>212.94900000000001</v>
       </c>
       <c r="F21">
-        <v>329.98200000000003</v>
+        <v>282.06400000000002</v>
       </c>
       <c r="G21">
-        <v>2279.0459999999998</v>
+        <v>2125.5859999999998</v>
       </c>
       <c r="H21">
-        <v>3944.886</v>
+        <v>3154.2240000000002</v>
       </c>
       <c r="I21">
-        <v>80.751999999999995</v>
+        <v>64.694999999999993</v>
       </c>
       <c r="J21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2349,78 +2469,78 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>345.95400000000001</v>
+        <v>328.27199999999999</v>
       </c>
       <c r="O21">
-        <v>1830.085</v>
+        <v>456.46800000000002</v>
       </c>
       <c r="P21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>-42.618000000000002</v>
+        <v>17.248999999999999</v>
       </c>
       <c r="R21">
-        <v>42273</v>
+        <v>38619</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2114.8009999999999</v>
+        <v>2697.7559999999999</v>
       </c>
       <c r="U21">
-        <v>1508.347</v>
+        <v>202.8</v>
       </c>
       <c r="V21">
-        <v>117.339</v>
+        <v>173.751</v>
       </c>
       <c r="W21">
-        <v>-85.387</v>
+        <v>-32.789000000000001</v>
       </c>
       <c r="X21">
-        <v>-118.687</v>
+        <v>-41.508000000000003</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-26.055</v>
+        <v>-96.432000000000002</v>
       </c>
       <c r="AA21">
-        <v>-72.143000000000001</v>
+        <v>86.778000000000006</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42364</v>
+        <v>38710</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>67.468999999999994</v>
+        <v>97.671000000000006</v>
       </c>
       <c r="D22">
-        <v>510.83100000000002</v>
+        <v>445.52</v>
       </c>
       <c r="E22">
-        <v>231.18</v>
+        <v>221.029</v>
       </c>
       <c r="F22">
-        <v>294.20100000000002</v>
+        <v>293.20499999999998</v>
       </c>
       <c r="G22">
-        <v>2326.6289999999999</v>
+        <v>1909.7929999999999</v>
       </c>
       <c r="H22">
-        <v>3937.4810000000002</v>
+        <v>2957.0329999999999</v>
       </c>
       <c r="I22">
-        <v>74.144999999999996</v>
+        <v>77.042000000000002</v>
       </c>
       <c r="J22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2432,78 +2552,78 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>315.25099999999998</v>
+        <v>322.791</v>
       </c>
       <c r="O22">
-        <v>1788.6569999999999</v>
+        <v>441.42700000000002</v>
       </c>
       <c r="P22">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>140.17099999999999</v>
+        <v>-54.334000000000003</v>
       </c>
       <c r="R22">
-        <v>42364</v>
+        <v>38710</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
       <c r="T22">
-        <v>2148.8240000000001</v>
+        <v>2515.6060000000002</v>
       </c>
       <c r="U22">
-        <v>1648.518</v>
+        <v>148.46600000000001</v>
       </c>
       <c r="V22">
-        <v>182.489</v>
+        <v>128.828</v>
       </c>
       <c r="W22">
-        <v>-85.712000000000003</v>
+        <v>-39.994999999999997</v>
       </c>
       <c r="X22">
-        <v>-49.837000000000003</v>
+        <v>-339.08499999999998</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>-31.04</v>
+        <v>188.17599999999999</v>
       </c>
       <c r="AA22">
-        <v>67.468999999999994</v>
+        <v>97.671000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42455</v>
+        <v>38801</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>139.81</v>
+        <v>107.11</v>
       </c>
       <c r="D23">
-        <v>555.25199999999995</v>
+        <v>478.17</v>
       </c>
       <c r="E23">
-        <v>278.50200000000001</v>
+        <v>259.92099999999999</v>
       </c>
       <c r="F23">
-        <v>322.90699999999998</v>
+        <v>314.35700000000003</v>
       </c>
       <c r="G23">
-        <v>2461.91</v>
+        <v>1941.2429999999999</v>
       </c>
       <c r="H23">
-        <v>3981.4679999999998</v>
+        <v>3041.556</v>
       </c>
       <c r="I23">
-        <v>82.695999999999998</v>
+        <v>82.516000000000005</v>
       </c>
       <c r="J23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2515,81 +2635,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>342.03300000000002</v>
+        <v>323.28699999999998</v>
       </c>
       <c r="O23">
-        <v>1842.7049999999999</v>
+        <v>433.54599999999999</v>
       </c>
       <c r="P23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>61.822000000000003</v>
+        <v>94.843999999999994</v>
       </c>
       <c r="R23">
-        <v>42455</v>
+        <v>38801</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2138.7629999999999</v>
+        <v>2608.0100000000002</v>
       </c>
       <c r="U23">
-        <v>1710.34</v>
+        <v>243.31</v>
       </c>
       <c r="V23">
-        <v>167.98599999999999</v>
+        <v>125.253</v>
       </c>
       <c r="W23">
-        <v>-85.713999999999999</v>
+        <v>-40.024000000000001</v>
       </c>
       <c r="X23">
-        <v>-166.988</v>
+        <v>-73.247</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-26.782</v>
+        <v>100.96599999999999</v>
       </c>
       <c r="AA23">
-        <v>139.81</v>
+        <v>107.11</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42546</v>
+        <v>38892</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>92.338999999999999</v>
+        <v>96.141999999999996</v>
       </c>
       <c r="D24">
-        <v>566.12599999999998</v>
+        <v>509.16</v>
       </c>
       <c r="E24">
-        <v>256.53100000000001</v>
+        <v>297.28500000000003</v>
       </c>
       <c r="F24">
-        <v>351.923</v>
+        <v>328.77199999999999</v>
       </c>
       <c r="G24">
-        <v>2807.0479999999998</v>
+        <v>2052.116</v>
       </c>
       <c r="H24">
-        <v>4234.616</v>
+        <v>3286.5369999999998</v>
       </c>
       <c r="I24">
-        <v>82.534999999999997</v>
+        <v>127.081</v>
       </c>
       <c r="J24">
-        <v>990.09</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>249.71700000000001</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>609.40300000000002</v>
+        <v>494.36099999999999</v>
       </c>
       <c r="O24">
-        <v>2126.8020000000001</v>
+        <v>511.048</v>
       </c>
       <c r="P24">
-        <v>1239.807</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>394.88900000000001</v>
+        <v>179.023</v>
       </c>
       <c r="R24">
-        <v>42546</v>
+        <v>38892</v>
       </c>
       <c r="S24">
-        <v>7213</v>
+        <v>9096</v>
       </c>
       <c r="T24">
-        <v>2107.8139999999999</v>
+        <v>2775.489</v>
       </c>
       <c r="U24">
-        <v>2105.2289999999998</v>
+        <v>422.33300000000003</v>
       </c>
       <c r="V24">
-        <v>254.071</v>
+        <v>191.27799999999999</v>
       </c>
       <c r="W24">
-        <v>-85.21</v>
+        <v>-40.192</v>
       </c>
       <c r="X24">
-        <v>105.169</v>
+        <v>-86.094999999999999</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>23.446000000000002</v>
+        <v>173.71899999999999</v>
       </c>
       <c r="AA24">
-        <v>92.338999999999999</v>
+        <v>96.141999999999996</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42637</v>
+        <v>38983</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>137.614</v>
+        <v>20.338000000000001</v>
       </c>
       <c r="D25">
-        <v>561.39599999999996</v>
+        <v>502.745</v>
       </c>
       <c r="E25">
-        <v>253.518</v>
+        <v>296.46199999999999</v>
       </c>
       <c r="F25">
-        <v>345.73200000000003</v>
+        <v>299.05799999999999</v>
       </c>
       <c r="G25">
-        <v>2833.9140000000002</v>
+        <v>2116.5349999999999</v>
       </c>
       <c r="H25">
-        <v>4192.616</v>
+        <v>3480.2370000000001</v>
       </c>
       <c r="I25">
-        <v>83.588999999999999</v>
+        <v>138.78299999999999</v>
       </c>
       <c r="J25">
-        <v>990.68499999999995</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>249.78800000000001</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,78 +2801,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>531.96699999999998</v>
+        <v>560.76700000000005</v>
       </c>
       <c r="O25">
-        <v>2057.38</v>
+        <v>576.85199999999998</v>
       </c>
       <c r="P25">
-        <v>1240.473</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>-13.156000000000001</v>
+        <v>44.484999999999999</v>
       </c>
       <c r="R25">
-        <v>42637</v>
+        <v>38983</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2135.2359999999999</v>
+        <v>2903.3850000000002</v>
       </c>
       <c r="U25">
-        <v>2092.0729999999999</v>
+        <v>466.81799999999998</v>
       </c>
       <c r="V25">
-        <v>123.402</v>
+        <v>213.892</v>
       </c>
       <c r="W25">
-        <v>-93.626999999999995</v>
+        <v>-50.02</v>
       </c>
       <c r="X25">
-        <v>-136.631</v>
+        <v>-76.97</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>-28.021000000000001</v>
+        <v>-0.90800000000000003</v>
       </c>
       <c r="AA25">
-        <v>137.614</v>
+        <v>20.338000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42728</v>
+        <v>39074</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>130.477</v>
+        <v>97.567999999999998</v>
       </c>
       <c r="D26">
-        <v>550.99800000000005</v>
+        <v>497.45299999999997</v>
       </c>
       <c r="E26">
-        <v>224.34200000000001</v>
+        <v>277.065</v>
       </c>
       <c r="F26">
-        <v>340.178</v>
+        <v>308.18299999999999</v>
       </c>
       <c r="G26">
-        <v>2622.5619999999999</v>
+        <v>2091.6709999999998</v>
       </c>
       <c r="H26">
-        <v>3947.9740000000002</v>
+        <v>3483.4490000000001</v>
       </c>
       <c r="I26">
-        <v>70.504999999999995</v>
+        <v>101.254</v>
       </c>
       <c r="J26">
-        <v>991.28099999999995</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2764,78 +2884,78 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>260.673</v>
+        <v>486.52800000000002</v>
       </c>
       <c r="O26">
-        <v>1803.7829999999999</v>
+        <v>501.95100000000002</v>
       </c>
       <c r="P26">
-        <v>991.28099999999995</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>-404.63799999999998</v>
+        <v>-96.103999999999999</v>
       </c>
       <c r="R26">
-        <v>42728</v>
+        <v>39074</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>2144.1909999999998</v>
+        <v>2981.498</v>
       </c>
       <c r="U26">
-        <v>1687.4349999999999</v>
+        <v>370.714</v>
       </c>
       <c r="V26">
-        <v>192.63</v>
+        <v>87.224999999999994</v>
       </c>
       <c r="W26">
-        <v>-93.561999999999998</v>
+        <v>-50.095999999999997</v>
       </c>
       <c r="X26">
-        <v>-384.22300000000001</v>
+        <v>-62.496000000000002</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>-199.494</v>
+        <v>-16.498000000000001</v>
       </c>
       <c r="AA26">
-        <v>130.477</v>
+        <v>97.567999999999998</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42819</v>
+        <v>39165</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>140.21299999999999</v>
+        <v>76.067999999999998</v>
       </c>
       <c r="D27">
-        <v>581.21600000000001</v>
+        <v>476.55599999999998</v>
       </c>
       <c r="E27">
-        <v>257.59199999999998</v>
+        <v>250.703</v>
       </c>
       <c r="F27">
-        <v>366.904</v>
+        <v>286.27</v>
       </c>
       <c r="G27">
-        <v>2715.107</v>
+        <v>2077.6709999999998</v>
       </c>
       <c r="H27">
-        <v>4017.7829999999999</v>
+        <v>3523.056</v>
       </c>
       <c r="I27">
-        <v>82.938000000000002</v>
+        <v>118.997</v>
       </c>
       <c r="J27">
-        <v>991.87699999999995</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2847,78 +2967,78 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>294.11</v>
+        <v>461.02800000000002</v>
       </c>
       <c r="O27">
-        <v>1857.4739999999999</v>
+        <v>478.72800000000001</v>
       </c>
       <c r="P27">
-        <v>991.87699999999995</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>-30.707999999999998</v>
+        <v>12.347</v>
       </c>
       <c r="R27">
-        <v>42819</v>
+        <v>39165</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2160.3090000000002</v>
+        <v>3044.328</v>
       </c>
       <c r="U27">
-        <v>1656.7270000000001</v>
+        <v>383.06099999999998</v>
       </c>
       <c r="V27">
-        <v>220.697</v>
+        <v>148.124</v>
       </c>
       <c r="W27">
-        <v>-93.387</v>
+        <v>-50.008000000000003</v>
       </c>
       <c r="X27">
-        <v>-144.346</v>
+        <v>-62.648000000000003</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-99.56</v>
+        <v>5.55</v>
       </c>
       <c r="AA27">
-        <v>140.21299999999999</v>
+        <v>76.067999999999998</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42910</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>163.309</v>
+        <v>92.253</v>
       </c>
       <c r="D28">
-        <v>602.005</v>
+        <v>532.37</v>
       </c>
       <c r="E28">
-        <v>256.45400000000001</v>
+        <v>244.99799999999999</v>
       </c>
       <c r="F28">
-        <v>397.166</v>
+        <v>333.11900000000003</v>
       </c>
       <c r="G28">
-        <v>3305.5940000000001</v>
+        <v>2070.5729999999999</v>
       </c>
       <c r="H28">
-        <v>4570.2330000000002</v>
+        <v>3606.7840000000001</v>
       </c>
       <c r="I28">
-        <v>77.373000000000005</v>
+        <v>93.772999999999996</v>
       </c>
       <c r="J28">
-        <v>1487.6780000000001</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2930,78 +3050,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>278.99700000000001</v>
+        <v>454.904</v>
       </c>
       <c r="O28">
-        <v>2367.5390000000002</v>
+        <v>474.85</v>
       </c>
       <c r="P28">
-        <v>1487.6780000000001</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>589.39400000000001</v>
+        <v>194.00700000000001</v>
       </c>
       <c r="R28">
-        <v>42910</v>
+        <v>39263</v>
       </c>
       <c r="S28">
-        <v>7040</v>
+        <v>10136</v>
       </c>
       <c r="T28">
-        <v>2202.694</v>
+        <v>3131.9340000000002</v>
       </c>
       <c r="U28">
-        <v>2246.1210000000001</v>
+        <v>577.06799999999998</v>
       </c>
       <c r="V28">
-        <v>236.928</v>
+        <v>167.31800000000001</v>
       </c>
       <c r="W28">
-        <v>-93.394999999999996</v>
+        <v>-50.005000000000003</v>
       </c>
       <c r="X28">
-        <v>357.83100000000002</v>
+        <v>-56.776000000000003</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.109</v>
+        <v>219.99299999999999</v>
       </c>
       <c r="AA28">
-        <v>163.309</v>
+        <v>92.253</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43001</v>
+        <v>39354</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>154.53299999999999</v>
+        <v>83.626000000000005</v>
       </c>
       <c r="D29">
-        <v>575.67600000000004</v>
+        <v>524.08100000000002</v>
       </c>
       <c r="E29">
-        <v>233.215</v>
+        <v>275.38299999999998</v>
       </c>
       <c r="F29">
-        <v>373.83100000000002</v>
+        <v>320.54599999999999</v>
       </c>
       <c r="G29">
-        <v>3307.5819999999999</v>
+        <v>2130.0149999999999</v>
       </c>
       <c r="H29">
-        <v>4536.0060000000003</v>
+        <v>3742.069</v>
       </c>
       <c r="I29">
-        <v>66.915000000000006</v>
+        <v>105.33799999999999</v>
       </c>
       <c r="J29">
-        <v>1488.4059999999999</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3010,81 +3130,81 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-9.0470000000000006</v>
       </c>
       <c r="N29">
-        <v>233.91200000000001</v>
+        <v>591.38099999999997</v>
       </c>
       <c r="O29">
-        <v>2338.2620000000002</v>
+        <v>725.78599999999994</v>
       </c>
       <c r="P29">
-        <v>1488.4059999999999</v>
+        <v>0</v>
       </c>
       <c r="Q29">
-        <v>-668.96100000000001</v>
+        <v>236.60499999999999</v>
       </c>
       <c r="R29">
-        <v>43001</v>
+        <v>39354</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2197.7440000000001</v>
+        <v>3016.2829999999999</v>
       </c>
       <c r="U29">
-        <v>1577.16</v>
+        <v>813.673</v>
       </c>
       <c r="V29">
-        <v>219.70500000000001</v>
+        <v>175.40199999999999</v>
       </c>
       <c r="W29">
-        <v>-101.462</v>
+        <v>-60.103999999999999</v>
       </c>
       <c r="X29">
-        <v>-177.00899999999999</v>
+        <v>-70.679000000000002</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-698.80899999999997</v>
+        <v>188.655</v>
       </c>
       <c r="AA29">
-        <v>154.53299999999999</v>
+        <v>83.626000000000005</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-75.013999999999996</v>
+        <v>107.02</v>
       </c>
       <c r="D30">
-        <v>622.63699999999994</v>
+        <v>540.02499999999998</v>
       </c>
       <c r="E30">
-        <v>235.69499999999999</v>
+        <v>286.67500000000001</v>
       </c>
       <c r="F30">
-        <v>409.67599999999999</v>
+        <v>335.70499999999998</v>
       </c>
       <c r="G30">
-        <v>3342.72</v>
+        <v>1981.9349999999999</v>
       </c>
       <c r="H30">
-        <v>4564.5119999999997</v>
+        <v>3638.5949999999998</v>
       </c>
       <c r="I30">
-        <v>84.77</v>
+        <v>90.287999999999997</v>
       </c>
       <c r="J30">
-        <v>990.428</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3096,78 +3216,78 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>745.39</v>
+        <v>417.66</v>
       </c>
       <c r="O30">
-        <v>2578.8139999999999</v>
+        <v>551.577</v>
       </c>
       <c r="P30">
-        <v>1489.1220000000001</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>54.35</v>
+        <v>193.75299999999999</v>
       </c>
       <c r="R30">
-        <v>43099</v>
+        <v>39445</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1985.6980000000001</v>
+        <v>3087.018</v>
       </c>
       <c r="U30">
-        <v>1631.51</v>
+        <v>1007.426</v>
       </c>
       <c r="V30">
-        <v>229.875</v>
+        <v>65.316999999999993</v>
       </c>
       <c r="W30">
-        <v>-101.42100000000001</v>
+        <v>-60.103000000000002</v>
       </c>
       <c r="X30">
-        <v>-155.99600000000001</v>
+        <v>-136.548</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>1.44</v>
+        <v>387.98700000000002</v>
       </c>
       <c r="AA30">
-        <v>-75.015000000000001</v>
+        <v>107.02</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>193.62700000000001</v>
+        <v>61.031999999999996</v>
       </c>
       <c r="D31">
-        <v>648.59900000000005</v>
+        <v>487.41</v>
       </c>
       <c r="E31">
-        <v>320.553</v>
+        <v>269.29199999999997</v>
       </c>
       <c r="F31">
-        <v>423.94600000000003</v>
+        <v>289.38600000000002</v>
       </c>
       <c r="G31">
-        <v>3340.8380000000002</v>
+        <v>2009.2280000000001</v>
       </c>
       <c r="H31">
-        <v>4623.1949999999997</v>
+        <v>3674.018</v>
       </c>
       <c r="I31">
-        <v>84.406999999999996</v>
+        <v>77.498999999999995</v>
       </c>
       <c r="J31">
-        <v>990.78700000000003</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3179,78 +3299,78 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>803.95100000000002</v>
+        <v>426.57600000000002</v>
       </c>
       <c r="O31">
-        <v>2672.2040000000002</v>
+        <v>559.94799999999998</v>
       </c>
       <c r="P31">
-        <v>1489.837</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>-1.917</v>
+        <v>181.625</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39536</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>1950.991</v>
+        <v>3114.07</v>
       </c>
       <c r="U31">
-        <v>1629.5930000000001</v>
+        <v>1189.0509999999999</v>
       </c>
       <c r="V31">
-        <v>223.22499999999999</v>
+        <v>156.143</v>
       </c>
       <c r="W31">
-        <v>-117.883</v>
+        <v>-60.103999999999999</v>
       </c>
       <c r="X31">
-        <v>-247.50899999999999</v>
+        <v>-68.968999999999994</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>94.225999999999999</v>
+        <v>147.27500000000001</v>
       </c>
       <c r="AA31">
-        <v>193.62700000000001</v>
+        <v>61.031999999999996</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>194.172</v>
+        <v>66.046999999999997</v>
       </c>
       <c r="D32">
-        <v>633.15300000000002</v>
+        <v>501.267</v>
       </c>
       <c r="E32">
-        <v>280.072</v>
+        <v>272.029</v>
       </c>
       <c r="F32">
-        <v>418.66800000000001</v>
+        <v>325.66300000000001</v>
       </c>
       <c r="G32">
-        <v>3210.4090000000001</v>
+        <v>2046.5609999999999</v>
       </c>
       <c r="H32">
-        <v>4451.5609999999997</v>
+        <v>3708.39</v>
       </c>
       <c r="I32">
-        <v>92.572000000000003</v>
+        <v>79.673000000000002</v>
       </c>
       <c r="J32">
-        <v>991.14700000000005</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,78 +3382,78 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>797.39499999999998</v>
+        <v>419.15499999999997</v>
       </c>
       <c r="O32">
-        <v>2520.6210000000001</v>
+        <v>560.57899999999995</v>
       </c>
       <c r="P32">
-        <v>1490.5530000000001</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>-86.108999999999995</v>
+        <v>-175.93199999999999</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39627</v>
       </c>
       <c r="S32">
-        <v>7149</v>
+        <v>9810</v>
       </c>
       <c r="T32">
-        <v>1930.94</v>
+        <v>3147.8110000000001</v>
       </c>
       <c r="U32">
-        <v>1543.4839999999999</v>
+        <v>1013.119</v>
       </c>
       <c r="V32">
-        <v>146.65899999999999</v>
+        <v>122.562</v>
       </c>
       <c r="W32">
-        <v>-117.321</v>
+        <v>-60.103999999999999</v>
       </c>
       <c r="X32">
-        <v>-231.52099999999999</v>
+        <v>-72.266000000000005</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>10.808999999999999</v>
+        <v>-204.33500000000001</v>
       </c>
       <c r="AA32">
-        <v>194.172</v>
+        <v>66.046999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>197.423</v>
+        <v>67.566999999999993</v>
       </c>
       <c r="D33">
-        <v>638.495</v>
+        <v>501.20400000000001</v>
       </c>
       <c r="E33">
-        <v>439.40699999999998</v>
+        <v>268.57</v>
       </c>
       <c r="F33">
-        <v>430.23599999999999</v>
+        <v>302.85000000000002</v>
       </c>
       <c r="G33">
-        <v>3311.5250000000001</v>
+        <v>2070.5990000000002</v>
       </c>
       <c r="H33">
-        <v>4548.5519999999997</v>
+        <v>3700.7629999999999</v>
       </c>
       <c r="I33">
-        <v>84.087000000000003</v>
+        <v>86.537999999999997</v>
       </c>
       <c r="J33">
-        <v>991.50599999999997</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3342,81 +3462,81 @@
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-8.2119999999999997</v>
       </c>
       <c r="N33">
-        <v>928.27700000000004</v>
+        <v>402.06799999999998</v>
       </c>
       <c r="O33">
-        <v>2636.2289999999998</v>
+        <v>544.173</v>
       </c>
       <c r="P33">
-        <v>1491.268</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>55.287999999999997</v>
+        <v>38.075000000000003</v>
       </c>
       <c r="R33">
-        <v>43372</v>
+        <v>39718</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1912.3230000000001</v>
+        <v>3156.59</v>
       </c>
       <c r="U33">
-        <v>1598.7719999999999</v>
+        <v>1051.194</v>
       </c>
       <c r="V33">
-        <v>207.185</v>
+        <v>157.06399999999999</v>
       </c>
       <c r="W33">
-        <v>-127.857</v>
+        <v>-64.111000000000004</v>
       </c>
       <c r="X33">
-        <v>-249.27500000000001</v>
+        <v>-79.177999999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>118.642</v>
+        <v>1.0680000000000001</v>
       </c>
       <c r="AA33">
-        <v>197.423</v>
+        <v>67.566999999999993</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>131.892</v>
+        <v>-38.783999999999999</v>
       </c>
       <c r="D34">
-        <v>576.90599999999995</v>
+        <v>410.67500000000001</v>
       </c>
       <c r="E34">
-        <v>391.41899999999998</v>
+        <v>213.37</v>
       </c>
       <c r="F34">
-        <v>373.048</v>
+        <v>199.08500000000001</v>
       </c>
       <c r="G34">
-        <v>2657.9180000000001</v>
+        <v>1695.6969999999999</v>
       </c>
       <c r="H34">
-        <v>3888.9270000000001</v>
+        <v>3209.982</v>
       </c>
       <c r="I34">
-        <v>99.576999999999998</v>
+        <v>81.656999999999996</v>
       </c>
       <c r="J34">
-        <v>991.86599999999999</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3428,78 +3548,78 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>406.48</v>
+        <v>293.36700000000002</v>
       </c>
       <c r="O34">
-        <v>2133.5129999999999</v>
+        <v>468.892</v>
       </c>
       <c r="P34">
-        <v>991.86599999999999</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>-192.03200000000001</v>
+        <v>-332.99400000000003</v>
       </c>
       <c r="R34">
-        <v>43463</v>
+        <v>39809</v>
       </c>
       <c r="S34">
         <v>0</v>
       </c>
       <c r="T34">
-        <v>1755.414</v>
+        <v>2741.09</v>
       </c>
       <c r="U34">
-        <v>1406.74</v>
+        <v>718.2</v>
       </c>
       <c r="V34">
-        <v>224.25</v>
+        <v>72.415000000000006</v>
       </c>
       <c r="W34">
-        <v>-126.80800000000001</v>
+        <v>-62.302999999999997</v>
       </c>
       <c r="X34">
-        <v>-815.35799999999995</v>
+        <v>-349.01100000000002</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>411.67200000000003</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="AA34">
-        <v>131.892</v>
+        <v>-38.783999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>130.613</v>
+        <v>-26.425999999999998</v>
       </c>
       <c r="D35">
-        <v>542.38300000000004</v>
+        <v>339.66500000000002</v>
       </c>
       <c r="E35">
-        <v>381.15199999999999</v>
+        <v>196.34399999999999</v>
       </c>
       <c r="F35">
-        <v>340.83100000000002</v>
+        <v>167.70500000000001</v>
       </c>
       <c r="G35">
-        <v>2576.7689999999998</v>
+        <v>1607.999</v>
       </c>
       <c r="H35">
-        <v>3803.8539999999998</v>
+        <v>3129.9279999999999</v>
       </c>
       <c r="I35">
-        <v>86.798000000000002</v>
+        <v>63.395000000000003</v>
       </c>
       <c r="J35">
-        <v>992.22500000000002</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3511,78 +3631,78 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>398.99700000000001</v>
+        <v>276.57100000000003</v>
       </c>
       <c r="O35">
-        <v>2141.107</v>
+        <v>498.00099999999998</v>
       </c>
       <c r="P35">
-        <v>992.22500000000002</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>247.82300000000001</v>
+        <v>-25.375</v>
       </c>
       <c r="R35">
-        <v>43554</v>
+        <v>39900</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>1662.7470000000001</v>
+        <v>2631.9270000000001</v>
       </c>
       <c r="U35">
-        <v>1654.5630000000001</v>
+        <v>692.82500000000005</v>
       </c>
       <c r="V35">
-        <v>206.93799999999999</v>
+        <v>105.965</v>
       </c>
       <c r="W35">
-        <v>-125.566</v>
+        <v>-60.960999999999999</v>
       </c>
       <c r="X35">
-        <v>-248.048</v>
+        <v>-67.808000000000007</v>
       </c>
       <c r="Y35">
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>310.69799999999998</v>
+        <v>1.046</v>
       </c>
       <c r="AA35">
-        <v>130.613</v>
+        <v>-26.425999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>367.55799999999999</v>
+        <v>8.0980000000000008</v>
       </c>
       <c r="D36">
-        <v>556.54499999999996</v>
+        <v>394.471</v>
       </c>
       <c r="E36">
-        <v>360.01600000000002</v>
+        <v>207.80699999999999</v>
       </c>
       <c r="F36">
-        <v>356.39100000000002</v>
+        <v>245.23699999999999</v>
       </c>
       <c r="G36">
-        <v>2539.5</v>
+        <v>1584.951</v>
       </c>
       <c r="H36">
-        <v>3743.982</v>
+        <v>3081.7750000000001</v>
       </c>
       <c r="I36">
-        <v>84.334999999999994</v>
+        <v>70.087000000000003</v>
       </c>
       <c r="J36">
-        <v>992.58399999999995</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3714,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>371.16699999999997</v>
+        <v>268.77600000000001</v>
       </c>
       <c r="O36">
-        <v>1898.7059999999999</v>
+        <v>487.31</v>
       </c>
       <c r="P36">
-        <v>992.58399999999995</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>102.779</v>
+        <v>16.523</v>
       </c>
       <c r="R36">
-        <v>43645</v>
+        <v>39991</v>
       </c>
       <c r="S36">
-        <v>7131</v>
+        <v>8765</v>
       </c>
       <c r="T36">
-        <v>1845.2760000000001</v>
+        <v>2594.4650000000001</v>
       </c>
       <c r="U36">
-        <v>1757.3420000000001</v>
+        <v>709.34799999999996</v>
       </c>
       <c r="V36">
-        <v>237.46700000000001</v>
+        <v>110.351</v>
       </c>
       <c r="W36">
-        <v>-125.345</v>
+        <v>-61.125999999999998</v>
       </c>
       <c r="X36">
-        <v>-206.21199999999999</v>
+        <v>-61.851999999999997</v>
       </c>
       <c r="Y36">
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>101.931</v>
+        <v>-7.9000000000000001E-2</v>
       </c>
       <c r="AA36">
-        <v>367.55799999999999</v>
+        <v>8.0980000000000008</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>140.15600000000001</v>
+        <v>41.951999999999998</v>
       </c>
       <c r="D37">
-        <v>533.04</v>
+        <v>449.24599999999998</v>
       </c>
       <c r="E37">
-        <v>370.31599999999997</v>
+        <v>228.84299999999999</v>
       </c>
       <c r="F37">
-        <v>343.32299999999998</v>
+        <v>251.62700000000001</v>
       </c>
       <c r="G37">
-        <v>2424.6239999999998</v>
+        <v>1578.4110000000001</v>
       </c>
       <c r="H37">
-        <v>3680.7869999999998</v>
+        <v>3061.3069999999998</v>
       </c>
       <c r="I37">
-        <v>81.793999999999997</v>
+        <v>57.966000000000001</v>
       </c>
       <c r="J37">
-        <v>992.94399999999996</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3674,81 +3794,81 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="N37">
-        <v>342.51600000000002</v>
+        <v>268.94299999999998</v>
       </c>
       <c r="O37">
-        <v>1899.501</v>
+        <v>488.96800000000002</v>
       </c>
       <c r="P37">
-        <v>1056.067</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>-62.151000000000003</v>
+        <v>126.681</v>
       </c>
       <c r="R37">
-        <v>43736</v>
+        <v>40082</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1781.2860000000001</v>
+        <v>2572.3389999999999</v>
       </c>
       <c r="U37">
-        <v>1695.191</v>
+        <v>836.029</v>
       </c>
       <c r="V37">
-        <v>141.27000000000001</v>
+        <v>138.51499999999999</v>
       </c>
       <c r="W37">
-        <v>-130.22200000000001</v>
+        <v>-61.377000000000002</v>
       </c>
       <c r="X37">
-        <v>-226.23500000000001</v>
+        <v>-82.897000000000006</v>
       </c>
       <c r="Y37">
-        <v>53.098999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>43.436999999999998</v>
+        <v>100.233</v>
       </c>
       <c r="AA37">
-        <v>140.15600000000001</v>
+        <v>41.951999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>146.05000000000001</v>
+        <v>58.634999999999998</v>
       </c>
       <c r="D38">
-        <v>551.07000000000005</v>
+        <v>473.51499999999999</v>
       </c>
       <c r="E38">
-        <v>348.34199999999998</v>
+        <v>281.12200000000001</v>
       </c>
       <c r="F38">
-        <v>360.524</v>
+        <v>291.78800000000001</v>
       </c>
       <c r="G38">
-        <v>2379.297</v>
+        <v>1531.56</v>
       </c>
       <c r="H38">
-        <v>3626.8290000000002</v>
+        <v>2998.4520000000002</v>
       </c>
       <c r="I38">
-        <v>89.448999999999998</v>
+        <v>69.254999999999995</v>
       </c>
       <c r="J38">
-        <v>993.303</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,78 +3880,78 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>360.471</v>
+        <v>257.392</v>
       </c>
       <c r="O38">
-        <v>1900.32</v>
+        <v>453.31900000000002</v>
       </c>
       <c r="P38">
-        <v>1054.115</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>25.003</v>
+        <v>-98.507000000000005</v>
       </c>
       <c r="R38">
-        <v>43827</v>
+        <v>40173</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1726.509</v>
+        <v>2545.1329999999998</v>
       </c>
       <c r="U38">
-        <v>1720.194</v>
+        <v>737.52200000000005</v>
       </c>
       <c r="V38">
-        <v>237.465</v>
+        <v>30.960999999999999</v>
       </c>
       <c r="W38">
-        <v>-129.81</v>
+        <v>-61.017000000000003</v>
       </c>
       <c r="X38">
-        <v>-233.517</v>
+        <v>-102.288</v>
       </c>
       <c r="Y38">
-        <v>50.783999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>34.630000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>146.05000000000001</v>
+        <v>58.634999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>161.19</v>
+        <v>-33.902999999999999</v>
       </c>
       <c r="D39">
-        <v>561.91600000000005</v>
+        <v>508.88</v>
       </c>
       <c r="E39">
-        <v>378.27300000000002</v>
+        <v>297.35199999999998</v>
       </c>
       <c r="F39">
-        <v>366.43700000000001</v>
+        <v>308.70299999999997</v>
       </c>
       <c r="G39">
-        <v>2310.0230000000001</v>
+        <v>1632.75</v>
       </c>
       <c r="H39">
-        <v>3548.9349999999999</v>
+        <v>3078.6729999999998</v>
       </c>
       <c r="I39">
-        <v>83.519000000000005</v>
+        <v>79.350999999999999</v>
       </c>
       <c r="J39">
-        <v>993.66300000000001</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -3843,78 +3963,78 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>387.92599999999999</v>
+        <v>472.60300000000001</v>
       </c>
       <c r="O39">
-        <v>1928.992</v>
+        <v>673.55100000000004</v>
       </c>
       <c r="P39">
-        <v>1051.9970000000001</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-81.527000000000001</v>
+        <v>20.914000000000001</v>
       </c>
       <c r="R39">
-        <v>43918</v>
+        <v>40264</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>1619.943</v>
+        <v>2405.1219999999998</v>
       </c>
       <c r="U39">
-        <v>1638.6669999999999</v>
+        <v>758.43600000000004</v>
       </c>
       <c r="V39">
-        <v>209.791</v>
+        <v>164.477</v>
       </c>
       <c r="W39">
-        <v>-129.072</v>
+        <v>-60.948999999999998</v>
       </c>
       <c r="X39">
-        <v>-289.83499999999998</v>
+        <v>-116.596</v>
       </c>
       <c r="Y39">
-        <v>48.100999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>15.538</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>161.19</v>
+        <v>-33.902999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>207.298</v>
+        <v>58.454999999999998</v>
       </c>
       <c r="D40">
-        <v>545.36900000000003</v>
+        <v>565.96199999999999</v>
       </c>
       <c r="E40">
-        <v>404.77800000000002</v>
+        <v>339.322</v>
       </c>
       <c r="F40">
-        <v>362.36799999999999</v>
+        <v>340.94799999999998</v>
       </c>
       <c r="G40">
-        <v>2317.8290000000002</v>
+        <v>1706.6130000000001</v>
       </c>
       <c r="H40">
-        <v>3629.3029999999999</v>
+        <v>3482.3249999999998</v>
       </c>
       <c r="I40">
-        <v>91.981999999999999</v>
+        <v>107.797</v>
       </c>
       <c r="J40">
-        <v>994.02200000000005</v>
+        <v>300</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +4046,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>453.334</v>
+        <v>532.51700000000005</v>
       </c>
       <c r="O40">
-        <v>1971.846</v>
+        <v>1129.367</v>
       </c>
       <c r="P40">
-        <v>1052.7809999999999</v>
+        <v>300</v>
       </c>
       <c r="Q40">
-        <v>-53.238999999999997</v>
+        <v>68.075999999999993</v>
       </c>
       <c r="R40">
-        <v>44009</v>
+        <v>40355</v>
       </c>
       <c r="S40">
-        <v>7115</v>
+        <v>9200</v>
       </c>
       <c r="T40">
-        <v>1657.4570000000001</v>
+        <v>2352.9580000000001</v>
       </c>
       <c r="U40">
-        <v>1578.67</v>
+        <v>826.51199999999994</v>
       </c>
       <c r="V40">
-        <v>212.32900000000001</v>
+        <v>157</v>
       </c>
       <c r="W40">
-        <v>-128.05799999999999</v>
+        <v>-60.411999999999999</v>
       </c>
       <c r="X40">
-        <v>-191.13300000000001</v>
+        <v>169.64</v>
       </c>
       <c r="Y40">
-        <v>48.314</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>10.388999999999999</v>
+        <v>100</v>
       </c>
       <c r="AA40">
-        <v>207.298</v>
+        <v>58.454999999999998</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>169.51400000000001</v>
+        <v>117.55</v>
       </c>
       <c r="D41">
-        <v>619.35699999999997</v>
+        <v>626.13900000000001</v>
       </c>
       <c r="E41">
-        <v>449.37599999999998</v>
+        <v>331.34699999999998</v>
       </c>
       <c r="F41">
-        <v>417.01400000000001</v>
+        <v>386.214</v>
       </c>
       <c r="G41">
-        <v>2356.9670000000001</v>
+        <v>1461.681</v>
       </c>
       <c r="H41">
-        <v>3653.527</v>
+        <v>3305.1030000000001</v>
       </c>
       <c r="I41">
-        <v>86.831000000000003</v>
+        <v>120.345</v>
       </c>
       <c r="J41">
-        <v>994.38099999999997</v>
+        <v>300</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4006,131 +4126,3451 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>-4.6589999999999998</v>
       </c>
       <c r="N41">
-        <v>446.32</v>
+        <v>356.76</v>
       </c>
       <c r="O41">
-        <v>1942.508</v>
+        <v>963.18299999999999</v>
       </c>
       <c r="P41">
-        <v>1051.1590000000001</v>
+        <v>300</v>
       </c>
       <c r="Q41">
-        <v>16.419</v>
+        <v>-108.232</v>
       </c>
       <c r="R41">
-        <v>44100</v>
+        <v>40446</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>1711.019</v>
+        <v>2341.92</v>
       </c>
       <c r="U41">
-        <v>1595.0889999999999</v>
+        <v>718.28</v>
       </c>
       <c r="V41">
-        <v>162.511</v>
+        <v>158.499</v>
       </c>
       <c r="W41">
-        <v>-128.14699999999999</v>
+        <v>-62.466999999999999</v>
       </c>
       <c r="X41">
-        <v>-151.73400000000001</v>
+        <v>-155.63</v>
       </c>
       <c r="Y41">
-        <v>46.104999999999997</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>18.366</v>
+        <v>0</v>
       </c>
       <c r="AA41">
-        <v>169.51400000000001</v>
+        <v>117.55</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44191</v>
+        <v>40537</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>109.59</v>
+      </c>
+      <c r="D42">
+        <v>612.93600000000004</v>
+      </c>
+      <c r="E42">
+        <v>293.26400000000001</v>
+      </c>
+      <c r="F42">
+        <v>380.27499999999998</v>
+      </c>
+      <c r="G42">
+        <v>1561.6859999999999</v>
+      </c>
+      <c r="H42">
+        <v>3365.6930000000002</v>
+      </c>
+      <c r="I42">
+        <v>96.468999999999994</v>
+      </c>
+      <c r="J42">
+        <v>300</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>335.35</v>
+      </c>
+      <c r="O42">
+        <v>980.72699999999998</v>
+      </c>
+      <c r="P42">
+        <v>300</v>
+      </c>
+      <c r="Q42">
+        <v>80.063999999999993</v>
+      </c>
+      <c r="R42">
+        <v>40537</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>2384.9659999999999</v>
+      </c>
+      <c r="U42">
+        <v>798.34400000000005</v>
+      </c>
+      <c r="V42">
+        <v>199.98400000000001</v>
+      </c>
+      <c r="W42">
+        <v>-62.277999999999999</v>
+      </c>
+      <c r="X42">
+        <v>-85.566000000000003</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>109.59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40628</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>136.27600000000001</v>
+      </c>
+      <c r="D43">
+        <v>606.77499999999998</v>
+      </c>
+      <c r="E43">
+        <v>304.59100000000001</v>
+      </c>
+      <c r="F43">
+        <v>372.65</v>
+      </c>
+      <c r="G43">
+        <v>1676.5930000000001</v>
+      </c>
+      <c r="H43">
+        <v>3452.4169999999999</v>
+      </c>
+      <c r="I43">
+        <v>107.444</v>
+      </c>
+      <c r="J43">
+        <v>300</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>391.15300000000002</v>
+      </c>
+      <c r="O43">
+        <v>987.37699999999995</v>
+      </c>
+      <c r="P43">
+        <v>300</v>
+      </c>
+      <c r="Q43">
+        <v>70.578999999999994</v>
+      </c>
+      <c r="R43">
+        <v>40628</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>2465.04</v>
+      </c>
+      <c r="U43">
+        <v>868.923</v>
+      </c>
+      <c r="V43">
+        <v>256.697</v>
+      </c>
+      <c r="W43">
+        <v>-62.323</v>
+      </c>
+      <c r="X43">
+        <v>-106.818</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>-49.786999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>136.27600000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40719</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>125.593</v>
+      </c>
+      <c r="D44">
+        <v>626.49099999999999</v>
+      </c>
+      <c r="E44">
+        <v>297.63200000000001</v>
+      </c>
+      <c r="F44">
+        <v>390.82499999999999</v>
+      </c>
+      <c r="G44">
+        <v>1727.8520000000001</v>
+      </c>
+      <c r="H44">
+        <v>3527.7429999999999</v>
+      </c>
+      <c r="I44">
+        <v>110.15300000000001</v>
+      </c>
+      <c r="J44">
+        <v>300</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>414.34</v>
+      </c>
+      <c r="O44">
+        <v>1016.925</v>
+      </c>
+      <c r="P44">
+        <v>300</v>
+      </c>
+      <c r="Q44">
+        <v>93.617999999999995</v>
+      </c>
+      <c r="R44">
+        <v>40719</v>
+      </c>
+      <c r="S44">
+        <v>9370</v>
+      </c>
+      <c r="T44">
+        <v>2510.8180000000002</v>
+      </c>
+      <c r="U44">
+        <v>962.54100000000005</v>
+      </c>
+      <c r="V44">
+        <v>246.274</v>
+      </c>
+      <c r="W44">
+        <v>-62.076999999999998</v>
+      </c>
+      <c r="X44">
+        <v>-99.076999999999998</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>125.593</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40810</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>133.446</v>
+      </c>
+      <c r="D45">
+        <v>636.00199999999995</v>
+      </c>
+      <c r="E45">
+        <v>328.98899999999998</v>
+      </c>
+      <c r="F45">
+        <v>395.47300000000001</v>
+      </c>
+      <c r="G45">
+        <v>1503.942</v>
+      </c>
+      <c r="H45">
+        <v>3521.5830000000001</v>
+      </c>
+      <c r="I45">
+        <v>126.794</v>
+      </c>
+      <c r="J45">
+        <v>311.79199999999997</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-16.216999999999999</v>
+      </c>
+      <c r="N45">
+        <v>386.66699999999997</v>
+      </c>
+      <c r="O45">
+        <v>1009.027</v>
+      </c>
+      <c r="P45">
+        <v>315.91000000000003</v>
+      </c>
+      <c r="Q45">
+        <v>-252.5</v>
+      </c>
+      <c r="R45">
+        <v>40810</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>2512.556</v>
+      </c>
+      <c r="U45">
+        <v>710.04100000000005</v>
+      </c>
+      <c r="V45">
+        <v>120.809</v>
+      </c>
+      <c r="W45">
+        <v>-64.781000000000006</v>
+      </c>
+      <c r="X45">
+        <v>-169.71600000000001</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>133.446</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>88.13</v>
+      </c>
+      <c r="D46">
+        <v>591.35900000000004</v>
+      </c>
+      <c r="E46">
+        <v>246.22900000000001</v>
+      </c>
+      <c r="F46">
+        <v>347.96</v>
+      </c>
+      <c r="G46">
+        <v>1465.2</v>
+      </c>
+      <c r="H46">
+        <v>3520.6550000000002</v>
+      </c>
+      <c r="I46">
+        <v>118.42700000000001</v>
+      </c>
+      <c r="J46">
+        <v>308.7</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>379.65899999999999</v>
+      </c>
+      <c r="O46">
+        <v>1016.189</v>
+      </c>
+      <c r="P46">
+        <v>310.64499999999998</v>
+      </c>
+      <c r="Q46">
+        <v>31.119</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>2504.4659999999999</v>
+      </c>
+      <c r="U46">
+        <v>741.16</v>
+      </c>
+      <c r="V46">
+        <v>249.32</v>
+      </c>
+      <c r="W46">
+        <v>-64.158000000000001</v>
+      </c>
+      <c r="X46">
+        <v>-117.648</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>-21.882999999999999</v>
+      </c>
+      <c r="AA46">
+        <v>88.13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>571.21199999999999</v>
+      </c>
+      <c r="E47">
+        <v>296.255</v>
+      </c>
+      <c r="F47">
+        <v>335.43</v>
+      </c>
+      <c r="G47">
+        <v>1637.2460000000001</v>
+      </c>
+      <c r="H47">
+        <v>3670.2370000000001</v>
+      </c>
+      <c r="I47">
+        <v>132.90600000000001</v>
+      </c>
+      <c r="J47">
+        <v>308.7</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>437.62700000000001</v>
+      </c>
+      <c r="O47">
+        <v>1167.039</v>
+      </c>
+      <c r="P47">
+        <v>310.64499999999998</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>2503.1979999999999</v>
+      </c>
+      <c r="U47">
+        <v>860.55100000000004</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>54.517000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>110.634</v>
+      </c>
+      <c r="D48">
+        <v>604.95600000000002</v>
+      </c>
+      <c r="E48">
+        <v>317.46100000000001</v>
+      </c>
+      <c r="F48">
+        <v>371.98899999999998</v>
+      </c>
+      <c r="G48">
+        <v>1699.366</v>
+      </c>
+      <c r="H48">
+        <v>3737.9459999999999</v>
+      </c>
+      <c r="I48">
+        <v>147.08600000000001</v>
+      </c>
+      <c r="J48">
+        <v>5.5919999999999996</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>755.38900000000001</v>
+      </c>
+      <c r="O48">
+        <v>1199.6690000000001</v>
+      </c>
+      <c r="P48">
+        <v>309.08800000000002</v>
+      </c>
+      <c r="Q48">
+        <v>20.509</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>9065</v>
+      </c>
+      <c r="T48">
+        <v>2538.277</v>
+      </c>
+      <c r="U48">
+        <v>881.06</v>
+      </c>
+      <c r="V48">
+        <v>190.09399999999999</v>
+      </c>
+      <c r="W48">
+        <v>-64.408000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-90.617999999999995</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-1.5</v>
+      </c>
+      <c r="AA48">
+        <v>110.634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41181</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>127.88800000000001</v>
+      </c>
+      <c r="D49">
+        <v>623.07500000000005</v>
+      </c>
+      <c r="E49">
+        <v>316.53800000000001</v>
+      </c>
+      <c r="F49">
+        <v>385.69099999999997</v>
+      </c>
+      <c r="G49">
+        <v>1666.796</v>
+      </c>
+      <c r="H49">
+        <v>3704.5740000000001</v>
+      </c>
+      <c r="I49">
+        <v>127.306</v>
+      </c>
+      <c r="J49">
+        <v>5.5919999999999996</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>-0.224</v>
+      </c>
+      <c r="N49">
+        <v>682.39700000000005</v>
+      </c>
+      <c r="O49">
+        <v>1136.1369999999999</v>
+      </c>
+      <c r="P49">
+        <v>308.86399999999998</v>
+      </c>
+      <c r="Q49">
+        <v>-31.21</v>
+      </c>
+      <c r="R49">
+        <v>41181</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>2568.4369999999999</v>
+      </c>
+      <c r="U49">
+        <v>849.85</v>
+      </c>
+      <c r="V49">
+        <v>136.745</v>
+      </c>
+      <c r="W49">
+        <v>-70.198999999999998</v>
+      </c>
+      <c r="X49">
+        <v>-117.596</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>127.88800000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41272</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>76.622</v>
+      </c>
+      <c r="D50">
+        <v>605.30600000000004</v>
+      </c>
+      <c r="E50">
+        <v>264.54500000000002</v>
+      </c>
+      <c r="F50">
+        <v>363.375</v>
+      </c>
+      <c r="G50">
+        <v>1723.9949999999999</v>
+      </c>
+      <c r="H50">
+        <v>3738.5529999999999</v>
+      </c>
+      <c r="I50">
+        <v>110.495</v>
+      </c>
+      <c r="J50">
+        <v>3.9969999999999999</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>673.81899999999996</v>
+      </c>
+      <c r="O50">
+        <v>1157.3409999999999</v>
+      </c>
+      <c r="P50">
+        <v>308.791</v>
+      </c>
+      <c r="Q50">
+        <v>105.25700000000001</v>
+      </c>
+      <c r="R50">
+        <v>41272</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>2581.212</v>
+      </c>
+      <c r="U50">
+        <v>955.10699999999997</v>
+      </c>
+      <c r="V50">
+        <v>255.09700000000001</v>
+      </c>
+      <c r="W50">
+        <v>-70.063000000000002</v>
+      </c>
+      <c r="X50">
+        <v>-91.852999999999994</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>76.622</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>604.88400000000001</v>
+      </c>
+      <c r="E51">
+        <v>300.04599999999999</v>
+      </c>
+      <c r="F51">
+        <v>376.10199999999998</v>
+      </c>
+      <c r="G51">
+        <v>2335.9580000000001</v>
+      </c>
+      <c r="H51">
+        <v>4334.1180000000004</v>
+      </c>
+      <c r="I51">
+        <v>114.629</v>
+      </c>
+      <c r="J51">
+        <v>503.57299999999998</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>706.96299999999997</v>
+      </c>
+      <c r="O51">
+        <v>1721.5519999999999</v>
+      </c>
+      <c r="P51">
+        <v>807.88699999999994</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>41363</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2612.5659999999998</v>
+      </c>
+      <c r="U51">
+        <v>1547.98</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>131.38800000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41454</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>119.014</v>
+      </c>
+      <c r="D52">
+        <v>608.19399999999996</v>
+      </c>
+      <c r="E52">
+        <v>285.43799999999999</v>
+      </c>
+      <c r="F52">
+        <v>371.399</v>
+      </c>
+      <c r="G52">
+        <v>1939.9059999999999</v>
+      </c>
+      <c r="H52">
+        <v>3935.91</v>
+      </c>
+      <c r="I52">
+        <v>105.322</v>
+      </c>
+      <c r="J52">
+        <v>503.57299999999998</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>404.89299999999997</v>
+      </c>
+      <c r="O52">
+        <v>1427.912</v>
+      </c>
+      <c r="P52">
+        <v>505.58800000000002</v>
+      </c>
+      <c r="Q52">
+        <v>-372.99400000000003</v>
+      </c>
+      <c r="R52">
+        <v>41454</v>
+      </c>
+      <c r="S52">
+        <v>9019</v>
+      </c>
+      <c r="T52">
+        <v>2507.998</v>
+      </c>
+      <c r="U52">
+        <v>1174.9860000000001</v>
+      </c>
+      <c r="V52">
+        <v>214.4</v>
+      </c>
+      <c r="W52">
+        <v>-69.531999999999996</v>
+      </c>
+      <c r="X52">
+        <v>-551.11400000000003</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AA52">
+        <v>119.014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41545</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>103.12</v>
+      </c>
+      <c r="D53">
+        <v>585.24099999999999</v>
+      </c>
+      <c r="E53">
+        <v>297.88799999999998</v>
+      </c>
+      <c r="F53">
+        <v>347.19600000000003</v>
+      </c>
+      <c r="G53">
+        <v>1781.768</v>
+      </c>
+      <c r="H53">
+        <v>3763.9969999999998</v>
+      </c>
+      <c r="I53">
+        <v>101.06</v>
+      </c>
+      <c r="J53">
+        <v>500.95499999999998</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>335.35700000000003</v>
+      </c>
+      <c r="O53">
+        <v>1365.5609999999999</v>
+      </c>
+      <c r="P53">
+        <v>505.75900000000001</v>
+      </c>
+      <c r="Q53">
+        <v>-165.43899999999999</v>
+      </c>
+      <c r="R53">
+        <v>41545</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2398.4360000000001</v>
+      </c>
+      <c r="U53">
+        <v>1009.547</v>
+      </c>
+      <c r="V53">
+        <v>95.894000000000005</v>
+      </c>
+      <c r="W53">
+        <v>-73.744</v>
+      </c>
+      <c r="X53">
+        <v>-228.05199999999999</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>103.12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>44.353000000000002</v>
+      </c>
+      <c r="D54">
+        <v>620.274</v>
+      </c>
+      <c r="E54">
+        <v>288.28500000000003</v>
+      </c>
+      <c r="F54">
+        <v>341.77199999999999</v>
+      </c>
+      <c r="G54">
+        <v>1890.136</v>
+      </c>
+      <c r="H54">
+        <v>4306.8819999999996</v>
+      </c>
+      <c r="I54">
+        <v>99.009</v>
+      </c>
+      <c r="J54">
+        <v>1000.871</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>381.11599999999999</v>
+      </c>
+      <c r="O54">
+        <v>1950.818</v>
+      </c>
+      <c r="P54">
+        <v>1003.836</v>
+      </c>
+      <c r="Q54">
+        <v>140.36199999999999</v>
+      </c>
+      <c r="R54">
+        <v>41636</v>
+      </c>
+      <c r="S54">
+        <v>0</v>
+      </c>
+      <c r="T54">
+        <v>2356.0639999999999</v>
+      </c>
+      <c r="U54">
+        <v>1149.9090000000001</v>
+      </c>
+      <c r="V54">
+        <v>234.43100000000001</v>
+      </c>
+      <c r="W54">
+        <v>-73.323999999999998</v>
+      </c>
+      <c r="X54">
+        <v>378.57</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>27</v>
+      </c>
+      <c r="AA54">
+        <v>44.353000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>122.544</v>
+      </c>
+      <c r="D55">
+        <v>605.68100000000004</v>
+      </c>
+      <c r="E55">
+        <v>304.12799999999999</v>
+      </c>
+      <c r="F55">
+        <v>345.43700000000001</v>
+      </c>
+      <c r="G55">
+        <v>1979.278</v>
+      </c>
+      <c r="H55">
+        <v>4354.5649999999996</v>
+      </c>
+      <c r="I55">
+        <v>94.314999999999998</v>
+      </c>
+      <c r="J55">
+        <v>1000.871</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>391.38799999999998</v>
+      </c>
+      <c r="O55">
+        <v>1953.961</v>
+      </c>
+      <c r="P55">
+        <v>1003.397</v>
+      </c>
+      <c r="Q55">
+        <v>81.338999999999999</v>
+      </c>
+      <c r="R55">
+        <v>41727</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2400.6039999999998</v>
+      </c>
+      <c r="U55">
+        <v>1231.248</v>
+      </c>
+      <c r="V55">
+        <v>211.69800000000001</v>
+      </c>
+      <c r="W55">
+        <v>-73.480999999999995</v>
+      </c>
+      <c r="X55">
+        <v>-98.82</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>122.544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41818</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>84.793000000000006</v>
+      </c>
+      <c r="D56">
+        <v>642.46699999999998</v>
+      </c>
+      <c r="E56">
+        <v>295.82799999999997</v>
+      </c>
+      <c r="F56">
+        <v>369.36</v>
+      </c>
+      <c r="G56">
+        <v>2086.7020000000002</v>
+      </c>
+      <c r="H56">
+        <v>4405.6180000000004</v>
+      </c>
+      <c r="I56">
+        <v>102.07599999999999</v>
+      </c>
+      <c r="J56">
+        <v>1001.026</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>398.63499999999999</v>
+      </c>
+      <c r="O56">
+        <v>1975.7070000000001</v>
+      </c>
+      <c r="P56">
+        <v>1001.398</v>
+      </c>
+      <c r="Q56">
+        <v>91.224000000000004</v>
+      </c>
+      <c r="R56">
+        <v>41818</v>
+      </c>
+      <c r="S56">
+        <v>8812</v>
+      </c>
+      <c r="T56">
+        <v>2429.9110000000001</v>
+      </c>
+      <c r="U56">
+        <v>1322.472</v>
+      </c>
+      <c r="V56">
+        <v>234.084</v>
+      </c>
+      <c r="W56">
+        <v>-73.626000000000005</v>
+      </c>
+      <c r="X56">
+        <v>-70.88</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>-49.953000000000003</v>
+      </c>
+      <c r="AA56">
+        <v>84.793000000000006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41909</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>99.98</v>
+      </c>
+      <c r="D57">
+        <v>580.27499999999998</v>
+      </c>
+      <c r="E57">
+        <v>281.93200000000002</v>
+      </c>
+      <c r="F57">
+        <v>338.82100000000003</v>
+      </c>
+      <c r="G57">
+        <v>2027.779</v>
+      </c>
+      <c r="H57">
+        <v>4305.125</v>
+      </c>
+      <c r="I57">
+        <v>96.346999999999994</v>
+      </c>
+      <c r="J57">
+        <v>1001.026</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>-0.437</v>
+      </c>
+      <c r="N57">
+        <v>335.13</v>
+      </c>
+      <c r="O57">
+        <v>1893.721</v>
+      </c>
+      <c r="P57">
+        <v>1001.026</v>
+      </c>
+      <c r="Q57">
+        <v>-78.588999999999999</v>
+      </c>
+      <c r="R57">
+        <v>41909</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2411.404</v>
+      </c>
+      <c r="U57">
+        <v>1243.883</v>
+      </c>
+      <c r="V57">
+        <v>116.997</v>
+      </c>
+      <c r="W57">
+        <v>-79.763000000000005</v>
+      </c>
+      <c r="X57">
+        <v>-138.97</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>-25.141999999999999</v>
+      </c>
+      <c r="AA57">
+        <v>99.98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>-72.034000000000006</v>
+      </c>
+      <c r="D58">
+        <v>566.80899999999997</v>
+      </c>
+      <c r="E58">
+        <v>258.50599999999997</v>
+      </c>
+      <c r="F58">
+        <v>322.97199999999998</v>
+      </c>
+      <c r="G58">
+        <v>2072.9899999999998</v>
+      </c>
+      <c r="H58">
+        <v>4124.527</v>
+      </c>
+      <c r="I58">
+        <v>82.525999999999996</v>
+      </c>
+      <c r="J58">
+        <v>1000</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>334.23899999999998</v>
+      </c>
+      <c r="O58">
+        <v>1882.7860000000001</v>
+      </c>
+      <c r="P58">
+        <v>1001.026</v>
+      </c>
+      <c r="Q58">
+        <v>61.987000000000002</v>
+      </c>
+      <c r="R58">
+        <v>42000</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>2241.741</v>
+      </c>
+      <c r="U58">
+        <v>1305.8699999999999</v>
+      </c>
+      <c r="V58">
+        <v>172.85499999999999</v>
+      </c>
+      <c r="W58">
+        <v>-79.168999999999997</v>
+      </c>
+      <c r="X58">
+        <v>-116.75</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>-72.034000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42091</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>79.433000000000007</v>
+      </c>
+      <c r="D59">
+        <v>577.26300000000003</v>
+      </c>
+      <c r="E59">
+        <v>278.42700000000002</v>
+      </c>
+      <c r="F59">
+        <v>325.10199999999998</v>
+      </c>
+      <c r="G59">
+        <v>2180.6880000000001</v>
+      </c>
+      <c r="H59">
+        <v>4167.7169999999996</v>
+      </c>
+      <c r="I59">
+        <v>85.361000000000004</v>
+      </c>
+      <c r="J59">
+        <v>1000</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>355.334</v>
+      </c>
+      <c r="O59">
+        <v>1913.8679999999999</v>
+      </c>
+      <c r="P59">
+        <v>1001.026</v>
+      </c>
+      <c r="Q59">
+        <v>86.326999999999998</v>
+      </c>
+      <c r="R59">
+        <v>42091</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2253.8490000000002</v>
+      </c>
+      <c r="U59">
+        <v>1392.1969999999999</v>
+      </c>
+      <c r="V59">
+        <v>182.06399999999999</v>
+      </c>
+      <c r="W59">
+        <v>-79.418999999999997</v>
+      </c>
+      <c r="X59">
+        <v>-87.466999999999999</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-0.2</v>
+      </c>
+      <c r="AA59">
+        <v>79.433000000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>98.659000000000006</v>
+      </c>
+      <c r="D60">
+        <v>582.51700000000005</v>
+      </c>
+      <c r="E60">
+        <v>278.84399999999999</v>
+      </c>
+      <c r="F60">
+        <v>336.46600000000001</v>
+      </c>
+      <c r="G60">
+        <v>2319.4029999999998</v>
+      </c>
+      <c r="H60">
+        <v>4216.0709999999999</v>
+      </c>
+      <c r="I60">
+        <v>88.322000000000003</v>
+      </c>
+      <c r="J60">
+        <v>987.68700000000001</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>383.17700000000002</v>
+      </c>
+      <c r="O60">
+        <v>1926.0509999999999</v>
+      </c>
+      <c r="P60">
+        <v>988.71100000000001</v>
+      </c>
+      <c r="Q60">
+        <v>158.768</v>
+      </c>
+      <c r="R60">
+        <v>42182</v>
+      </c>
+      <c r="S60">
+        <v>8250</v>
+      </c>
+      <c r="T60">
+        <v>2290.02</v>
+      </c>
+      <c r="U60">
+        <v>1550.9649999999999</v>
+      </c>
+      <c r="V60">
+        <v>221.79</v>
+      </c>
+      <c r="W60">
+        <v>-79.558000000000007</v>
+      </c>
+      <c r="X60">
+        <v>-85.953000000000003</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>98.659000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42273</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>-72.143000000000001</v>
+      </c>
+      <c r="D61">
+        <v>562.51</v>
+      </c>
+      <c r="E61">
+        <v>282.471</v>
+      </c>
+      <c r="F61">
+        <v>329.98200000000003</v>
+      </c>
+      <c r="G61">
+        <v>2279.0459999999998</v>
+      </c>
+      <c r="H61">
+        <v>3944.886</v>
+      </c>
+      <c r="I61">
+        <v>80.751999999999995</v>
+      </c>
+      <c r="J61">
+        <v>1000</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>345.95400000000001</v>
+      </c>
+      <c r="O61">
+        <v>1830.085</v>
+      </c>
+      <c r="P61">
+        <v>1000</v>
+      </c>
+      <c r="Q61">
+        <v>-42.618000000000002</v>
+      </c>
+      <c r="R61">
+        <v>42273</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2114.8009999999999</v>
+      </c>
+      <c r="U61">
+        <v>1508.347</v>
+      </c>
+      <c r="V61">
+        <v>117.339</v>
+      </c>
+      <c r="W61">
+        <v>-85.387</v>
+      </c>
+      <c r="X61">
+        <v>-118.687</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-26.055</v>
+      </c>
+      <c r="AA61">
+        <v>-72.143000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42364</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>67.468999999999994</v>
+      </c>
+      <c r="D62">
+        <v>510.83100000000002</v>
+      </c>
+      <c r="E62">
+        <v>231.18</v>
+      </c>
+      <c r="F62">
+        <v>294.20100000000002</v>
+      </c>
+      <c r="G62">
+        <v>2326.6289999999999</v>
+      </c>
+      <c r="H62">
+        <v>3937.4810000000002</v>
+      </c>
+      <c r="I62">
+        <v>74.144999999999996</v>
+      </c>
+      <c r="J62">
+        <v>1000</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>315.25099999999998</v>
+      </c>
+      <c r="O62">
+        <v>1788.6569999999999</v>
+      </c>
+      <c r="P62">
+        <v>1000</v>
+      </c>
+      <c r="Q62">
+        <v>140.17099999999999</v>
+      </c>
+      <c r="R62">
+        <v>42364</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>2148.8240000000001</v>
+      </c>
+      <c r="U62">
+        <v>1648.518</v>
+      </c>
+      <c r="V62">
+        <v>182.489</v>
+      </c>
+      <c r="W62">
+        <v>-85.712000000000003</v>
+      </c>
+      <c r="X62">
+        <v>-49.837000000000003</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>-31.04</v>
+      </c>
+      <c r="AA62">
+        <v>67.468999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42455</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>139.81</v>
+      </c>
+      <c r="D63">
+        <v>555.25199999999995</v>
+      </c>
+      <c r="E63">
+        <v>278.50200000000001</v>
+      </c>
+      <c r="F63">
+        <v>322.90699999999998</v>
+      </c>
+      <c r="G63">
+        <v>2461.91</v>
+      </c>
+      <c r="H63">
+        <v>3981.4679999999998</v>
+      </c>
+      <c r="I63">
+        <v>82.695999999999998</v>
+      </c>
+      <c r="J63">
+        <v>1000</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>342.03300000000002</v>
+      </c>
+      <c r="O63">
+        <v>1842.7049999999999</v>
+      </c>
+      <c r="P63">
+        <v>1000</v>
+      </c>
+      <c r="Q63">
+        <v>61.822000000000003</v>
+      </c>
+      <c r="R63">
+        <v>42455</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2138.7629999999999</v>
+      </c>
+      <c r="U63">
+        <v>1710.34</v>
+      </c>
+      <c r="V63">
+        <v>167.98599999999999</v>
+      </c>
+      <c r="W63">
+        <v>-85.713999999999999</v>
+      </c>
+      <c r="X63">
+        <v>-166.988</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>-26.782</v>
+      </c>
+      <c r="AA63">
+        <v>139.81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42546</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>92.338999999999999</v>
+      </c>
+      <c r="D64">
+        <v>566.12599999999998</v>
+      </c>
+      <c r="E64">
+        <v>256.53100000000001</v>
+      </c>
+      <c r="F64">
+        <v>351.923</v>
+      </c>
+      <c r="G64">
+        <v>2807.0479999999998</v>
+      </c>
+      <c r="H64">
+        <v>4234.616</v>
+      </c>
+      <c r="I64">
+        <v>82.534999999999997</v>
+      </c>
+      <c r="J64">
+        <v>990.09</v>
+      </c>
+      <c r="K64">
+        <v>249.71700000000001</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>609.40300000000002</v>
+      </c>
+      <c r="O64">
+        <v>2126.8020000000001</v>
+      </c>
+      <c r="P64">
+        <v>1239.807</v>
+      </c>
+      <c r="Q64">
+        <v>394.88900000000001</v>
+      </c>
+      <c r="R64">
+        <v>42546</v>
+      </c>
+      <c r="S64">
+        <v>7213</v>
+      </c>
+      <c r="T64">
+        <v>2107.8139999999999</v>
+      </c>
+      <c r="U64">
+        <v>2105.2289999999998</v>
+      </c>
+      <c r="V64">
+        <v>254.071</v>
+      </c>
+      <c r="W64">
+        <v>-85.21</v>
+      </c>
+      <c r="X64">
+        <v>105.169</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>23.446000000000002</v>
+      </c>
+      <c r="AA64">
+        <v>92.338999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42637</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>137.614</v>
+      </c>
+      <c r="D65">
+        <v>561.39599999999996</v>
+      </c>
+      <c r="E65">
+        <v>253.518</v>
+      </c>
+      <c r="F65">
+        <v>345.73200000000003</v>
+      </c>
+      <c r="G65">
+        <v>2833.9140000000002</v>
+      </c>
+      <c r="H65">
+        <v>4192.616</v>
+      </c>
+      <c r="I65">
+        <v>83.588999999999999</v>
+      </c>
+      <c r="J65">
+        <v>990.68499999999995</v>
+      </c>
+      <c r="K65">
+        <v>249.78800000000001</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>531.96699999999998</v>
+      </c>
+      <c r="O65">
+        <v>2057.38</v>
+      </c>
+      <c r="P65">
+        <v>1240.473</v>
+      </c>
+      <c r="Q65">
+        <v>-13.156000000000001</v>
+      </c>
+      <c r="R65">
+        <v>42637</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2135.2359999999999</v>
+      </c>
+      <c r="U65">
+        <v>2092.0729999999999</v>
+      </c>
+      <c r="V65">
+        <v>123.402</v>
+      </c>
+      <c r="W65">
+        <v>-93.626999999999995</v>
+      </c>
+      <c r="X65">
+        <v>-136.631</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>-28.021000000000001</v>
+      </c>
+      <c r="AA65">
+        <v>137.614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42728</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>130.477</v>
+      </c>
+      <c r="D66">
+        <v>550.99800000000005</v>
+      </c>
+      <c r="E66">
+        <v>224.34200000000001</v>
+      </c>
+      <c r="F66">
+        <v>340.178</v>
+      </c>
+      <c r="G66">
+        <v>2622.5619999999999</v>
+      </c>
+      <c r="H66">
+        <v>3947.9740000000002</v>
+      </c>
+      <c r="I66">
+        <v>70.504999999999995</v>
+      </c>
+      <c r="J66">
+        <v>991.28099999999995</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>260.673</v>
+      </c>
+      <c r="O66">
+        <v>1803.7829999999999</v>
+      </c>
+      <c r="P66">
+        <v>991.28099999999995</v>
+      </c>
+      <c r="Q66">
+        <v>-404.63799999999998</v>
+      </c>
+      <c r="R66">
+        <v>42728</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>2144.1909999999998</v>
+      </c>
+      <c r="U66">
+        <v>1687.4349999999999</v>
+      </c>
+      <c r="V66">
+        <v>192.63</v>
+      </c>
+      <c r="W66">
+        <v>-93.561999999999998</v>
+      </c>
+      <c r="X66">
+        <v>-384.22300000000001</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>-199.494</v>
+      </c>
+      <c r="AA66">
+        <v>130.477</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42819</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>140.21299999999999</v>
+      </c>
+      <c r="D67">
+        <v>581.21600000000001</v>
+      </c>
+      <c r="E67">
+        <v>257.59199999999998</v>
+      </c>
+      <c r="F67">
+        <v>366.904</v>
+      </c>
+      <c r="G67">
+        <v>2715.107</v>
+      </c>
+      <c r="H67">
+        <v>4017.7829999999999</v>
+      </c>
+      <c r="I67">
+        <v>82.938000000000002</v>
+      </c>
+      <c r="J67">
+        <v>991.87699999999995</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>294.11</v>
+      </c>
+      <c r="O67">
+        <v>1857.4739999999999</v>
+      </c>
+      <c r="P67">
+        <v>991.87699999999995</v>
+      </c>
+      <c r="Q67">
+        <v>-30.707999999999998</v>
+      </c>
+      <c r="R67">
+        <v>42819</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2160.3090000000002</v>
+      </c>
+      <c r="U67">
+        <v>1656.7270000000001</v>
+      </c>
+      <c r="V67">
+        <v>220.697</v>
+      </c>
+      <c r="W67">
+        <v>-93.387</v>
+      </c>
+      <c r="X67">
+        <v>-144.346</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>-99.56</v>
+      </c>
+      <c r="AA67">
+        <v>140.21299999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42910</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>163.309</v>
+      </c>
+      <c r="D68">
+        <v>602.005</v>
+      </c>
+      <c r="E68">
+        <v>256.45400000000001</v>
+      </c>
+      <c r="F68">
+        <v>397.166</v>
+      </c>
+      <c r="G68">
+        <v>3305.5940000000001</v>
+      </c>
+      <c r="H68">
+        <v>4570.2330000000002</v>
+      </c>
+      <c r="I68">
+        <v>77.373000000000005</v>
+      </c>
+      <c r="J68">
+        <v>1487.6780000000001</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>278.99700000000001</v>
+      </c>
+      <c r="O68">
+        <v>2367.5390000000002</v>
+      </c>
+      <c r="P68">
+        <v>1487.6780000000001</v>
+      </c>
+      <c r="Q68">
+        <v>589.39400000000001</v>
+      </c>
+      <c r="R68">
+        <v>42910</v>
+      </c>
+      <c r="S68">
+        <v>7040</v>
+      </c>
+      <c r="T68">
+        <v>2202.694</v>
+      </c>
+      <c r="U68">
+        <v>2246.1210000000001</v>
+      </c>
+      <c r="V68">
+        <v>236.928</v>
+      </c>
+      <c r="W68">
+        <v>-93.394999999999996</v>
+      </c>
+      <c r="X68">
+        <v>357.83100000000002</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0.109</v>
+      </c>
+      <c r="AA68">
+        <v>163.309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43001</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>154.53299999999999</v>
+      </c>
+      <c r="D69">
+        <v>575.67600000000004</v>
+      </c>
+      <c r="E69">
+        <v>233.215</v>
+      </c>
+      <c r="F69">
+        <v>373.83100000000002</v>
+      </c>
+      <c r="G69">
+        <v>3307.5819999999999</v>
+      </c>
+      <c r="H69">
+        <v>4536.0060000000003</v>
+      </c>
+      <c r="I69">
+        <v>66.915000000000006</v>
+      </c>
+      <c r="J69">
+        <v>1488.4059999999999</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>233.91200000000001</v>
+      </c>
+      <c r="O69">
+        <v>2338.2620000000002</v>
+      </c>
+      <c r="P69">
+        <v>1488.4059999999999</v>
+      </c>
+      <c r="Q69">
+        <v>-668.96100000000001</v>
+      </c>
+      <c r="R69">
+        <v>43001</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2197.7440000000001</v>
+      </c>
+      <c r="U69">
+        <v>1577.16</v>
+      </c>
+      <c r="V69">
+        <v>219.70500000000001</v>
+      </c>
+      <c r="W69">
+        <v>-101.462</v>
+      </c>
+      <c r="X69">
+        <v>-177.00899999999999</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-698.80899999999997</v>
+      </c>
+      <c r="AA69">
+        <v>154.53299999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43099</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>-75.013999999999996</v>
+      </c>
+      <c r="D70">
+        <v>622.63699999999994</v>
+      </c>
+      <c r="E70">
+        <v>235.69499999999999</v>
+      </c>
+      <c r="F70">
+        <v>409.67599999999999</v>
+      </c>
+      <c r="G70">
+        <v>3342.72</v>
+      </c>
+      <c r="H70">
+        <v>4564.5119999999997</v>
+      </c>
+      <c r="I70">
+        <v>84.77</v>
+      </c>
+      <c r="J70">
+        <v>990.428</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>745.39</v>
+      </c>
+      <c r="O70">
+        <v>2578.8139999999999</v>
+      </c>
+      <c r="P70">
+        <v>1489.1220000000001</v>
+      </c>
+      <c r="Q70">
+        <v>54.35</v>
+      </c>
+      <c r="R70">
+        <v>43099</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>1985.6980000000001</v>
+      </c>
+      <c r="U70">
+        <v>1631.51</v>
+      </c>
+      <c r="V70">
+        <v>229.875</v>
+      </c>
+      <c r="W70">
+        <v>-101.42100000000001</v>
+      </c>
+      <c r="X70">
+        <v>-155.99600000000001</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>1.44</v>
+      </c>
+      <c r="AA70">
+        <v>-75.015000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>193.62700000000001</v>
+      </c>
+      <c r="D71">
+        <v>648.59900000000005</v>
+      </c>
+      <c r="E71">
+        <v>320.553</v>
+      </c>
+      <c r="F71">
+        <v>423.94600000000003</v>
+      </c>
+      <c r="G71">
+        <v>3340.8380000000002</v>
+      </c>
+      <c r="H71">
+        <v>4623.1949999999997</v>
+      </c>
+      <c r="I71">
+        <v>84.406999999999996</v>
+      </c>
+      <c r="J71">
+        <v>990.78700000000003</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>803.95100000000002</v>
+      </c>
+      <c r="O71">
+        <v>2672.2040000000002</v>
+      </c>
+      <c r="P71">
+        <v>1489.837</v>
+      </c>
+      <c r="Q71">
+        <v>-1.917</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>1950.991</v>
+      </c>
+      <c r="U71">
+        <v>1629.5930000000001</v>
+      </c>
+      <c r="V71">
+        <v>223.22499999999999</v>
+      </c>
+      <c r="W71">
+        <v>-117.883</v>
+      </c>
+      <c r="X71">
+        <v>-247.50899999999999</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>94.225999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>193.62700000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>194.172</v>
+      </c>
+      <c r="D72">
+        <v>633.15300000000002</v>
+      </c>
+      <c r="E72">
+        <v>280.072</v>
+      </c>
+      <c r="F72">
+        <v>418.66800000000001</v>
+      </c>
+      <c r="G72">
+        <v>3210.4090000000001</v>
+      </c>
+      <c r="H72">
+        <v>4451.5609999999997</v>
+      </c>
+      <c r="I72">
+        <v>92.572000000000003</v>
+      </c>
+      <c r="J72">
+        <v>991.14700000000005</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>797.39499999999998</v>
+      </c>
+      <c r="O72">
+        <v>2520.6210000000001</v>
+      </c>
+      <c r="P72">
+        <v>1490.5530000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-86.108999999999995</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>7149</v>
+      </c>
+      <c r="T72">
+        <v>1930.94</v>
+      </c>
+      <c r="U72">
+        <v>1543.4839999999999</v>
+      </c>
+      <c r="V72">
+        <v>146.65899999999999</v>
+      </c>
+      <c r="W72">
+        <v>-117.321</v>
+      </c>
+      <c r="X72">
+        <v>-231.52099999999999</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>10.808999999999999</v>
+      </c>
+      <c r="AA72">
+        <v>194.172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43372</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>197.423</v>
+      </c>
+      <c r="D73">
+        <v>638.495</v>
+      </c>
+      <c r="E73">
+        <v>439.40699999999998</v>
+      </c>
+      <c r="F73">
+        <v>430.23599999999999</v>
+      </c>
+      <c r="G73">
+        <v>3311.5250000000001</v>
+      </c>
+      <c r="H73">
+        <v>4548.5519999999997</v>
+      </c>
+      <c r="I73">
+        <v>84.087000000000003</v>
+      </c>
+      <c r="J73">
+        <v>991.50599999999997</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>928.27700000000004</v>
+      </c>
+      <c r="O73">
+        <v>2636.2289999999998</v>
+      </c>
+      <c r="P73">
+        <v>1491.268</v>
+      </c>
+      <c r="Q73">
+        <v>55.287999999999997</v>
+      </c>
+      <c r="R73">
+        <v>43372</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>1912.3230000000001</v>
+      </c>
+      <c r="U73">
+        <v>1598.7719999999999</v>
+      </c>
+      <c r="V73">
+        <v>207.185</v>
+      </c>
+      <c r="W73">
+        <v>-127.857</v>
+      </c>
+      <c r="X73">
+        <v>-249.27500000000001</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>118.642</v>
+      </c>
+      <c r="AA73">
+        <v>197.423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43463</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>131.892</v>
+      </c>
+      <c r="D74">
+        <v>576.90599999999995</v>
+      </c>
+      <c r="E74">
+        <v>391.41899999999998</v>
+      </c>
+      <c r="F74">
+        <v>373.048</v>
+      </c>
+      <c r="G74">
+        <v>2657.9180000000001</v>
+      </c>
+      <c r="H74">
+        <v>3888.9270000000001</v>
+      </c>
+      <c r="I74">
+        <v>99.576999999999998</v>
+      </c>
+      <c r="J74">
+        <v>991.86599999999999</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>406.48</v>
+      </c>
+      <c r="O74">
+        <v>2133.5129999999999</v>
+      </c>
+      <c r="P74">
+        <v>991.86599999999999</v>
+      </c>
+      <c r="Q74">
+        <v>-192.03200000000001</v>
+      </c>
+      <c r="R74">
+        <v>43463</v>
+      </c>
+      <c r="S74">
+        <v>0</v>
+      </c>
+      <c r="T74">
+        <v>1755.414</v>
+      </c>
+      <c r="U74">
+        <v>1406.74</v>
+      </c>
+      <c r="V74">
+        <v>224.25</v>
+      </c>
+      <c r="W74">
+        <v>-126.80800000000001</v>
+      </c>
+      <c r="X74">
+        <v>-815.35799999999995</v>
+      </c>
+      <c r="Y74">
+        <v>0</v>
+      </c>
+      <c r="Z74">
+        <v>411.67200000000003</v>
+      </c>
+      <c r="AA74">
+        <v>131.892</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43554</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>130.613</v>
+      </c>
+      <c r="D75">
+        <v>542.38300000000004</v>
+      </c>
+      <c r="E75">
+        <v>381.15199999999999</v>
+      </c>
+      <c r="F75">
+        <v>340.83100000000002</v>
+      </c>
+      <c r="G75">
+        <v>2576.7689999999998</v>
+      </c>
+      <c r="H75">
+        <v>3803.8539999999998</v>
+      </c>
+      <c r="I75">
+        <v>86.798000000000002</v>
+      </c>
+      <c r="J75">
+        <v>992.22500000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>398.99700000000001</v>
+      </c>
+      <c r="O75">
+        <v>2141.107</v>
+      </c>
+      <c r="P75">
+        <v>992.22500000000002</v>
+      </c>
+      <c r="Q75">
+        <v>247.82300000000001</v>
+      </c>
+      <c r="R75">
+        <v>43554</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>1662.7470000000001</v>
+      </c>
+      <c r="U75">
+        <v>1654.5630000000001</v>
+      </c>
+      <c r="V75">
+        <v>206.93799999999999</v>
+      </c>
+      <c r="W75">
+        <v>-125.566</v>
+      </c>
+      <c r="X75">
+        <v>-248.048</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>310.69799999999998</v>
+      </c>
+      <c r="AA75">
+        <v>130.613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43645</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>367.55799999999999</v>
+      </c>
+      <c r="D76">
+        <v>556.54499999999996</v>
+      </c>
+      <c r="E76">
+        <v>360.01600000000002</v>
+      </c>
+      <c r="F76">
+        <v>356.39100000000002</v>
+      </c>
+      <c r="G76">
+        <v>2539.5</v>
+      </c>
+      <c r="H76">
+        <v>3743.982</v>
+      </c>
+      <c r="I76">
+        <v>84.334999999999994</v>
+      </c>
+      <c r="J76">
+        <v>992.58399999999995</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>371.16699999999997</v>
+      </c>
+      <c r="O76">
+        <v>1898.7059999999999</v>
+      </c>
+      <c r="P76">
+        <v>992.58399999999995</v>
+      </c>
+      <c r="Q76">
+        <v>102.779</v>
+      </c>
+      <c r="R76">
+        <v>43645</v>
+      </c>
+      <c r="S76">
+        <v>7131</v>
+      </c>
+      <c r="T76">
+        <v>1845.2760000000001</v>
+      </c>
+      <c r="U76">
+        <v>1757.3420000000001</v>
+      </c>
+      <c r="V76">
+        <v>237.46700000000001</v>
+      </c>
+      <c r="W76">
+        <v>-125.345</v>
+      </c>
+      <c r="X76">
+        <v>-206.21199999999999</v>
+      </c>
+      <c r="Y76">
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <v>101.931</v>
+      </c>
+      <c r="AA76">
+        <v>367.55799999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43736</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>140.15600000000001</v>
+      </c>
+      <c r="D77">
+        <v>533.04</v>
+      </c>
+      <c r="E77">
+        <v>370.31599999999997</v>
+      </c>
+      <c r="F77">
+        <v>343.32299999999998</v>
+      </c>
+      <c r="G77">
+        <v>2424.6239999999998</v>
+      </c>
+      <c r="H77">
+        <v>3680.7869999999998</v>
+      </c>
+      <c r="I77">
+        <v>81.793999999999997</v>
+      </c>
+      <c r="J77">
+        <v>992.94399999999996</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>342.51600000000002</v>
+      </c>
+      <c r="O77">
+        <v>1899.501</v>
+      </c>
+      <c r="P77">
+        <v>1056.067</v>
+      </c>
+      <c r="Q77">
+        <v>-62.151000000000003</v>
+      </c>
+      <c r="R77">
+        <v>43736</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>1781.2860000000001</v>
+      </c>
+      <c r="U77">
+        <v>1695.191</v>
+      </c>
+      <c r="V77">
+        <v>141.27000000000001</v>
+      </c>
+      <c r="W77">
+        <v>-130.22200000000001</v>
+      </c>
+      <c r="X77">
+        <v>-226.23500000000001</v>
+      </c>
+      <c r="Y77">
+        <v>53.098999999999997</v>
+      </c>
+      <c r="Z77">
+        <v>43.436999999999998</v>
+      </c>
+      <c r="AA77">
+        <v>140.15600000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43827</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>146.05000000000001</v>
+      </c>
+      <c r="D78">
+        <v>551.07000000000005</v>
+      </c>
+      <c r="E78">
+        <v>348.34199999999998</v>
+      </c>
+      <c r="F78">
+        <v>360.524</v>
+      </c>
+      <c r="G78">
+        <v>2379.297</v>
+      </c>
+      <c r="H78">
+        <v>3626.8290000000002</v>
+      </c>
+      <c r="I78">
+        <v>89.448999999999998</v>
+      </c>
+      <c r="J78">
+        <v>993.303</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>360.471</v>
+      </c>
+      <c r="O78">
+        <v>1900.32</v>
+      </c>
+      <c r="P78">
+        <v>1054.115</v>
+      </c>
+      <c r="Q78">
+        <v>25.003</v>
+      </c>
+      <c r="R78">
+        <v>43827</v>
+      </c>
+      <c r="S78">
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <v>1726.509</v>
+      </c>
+      <c r="U78">
+        <v>1720.194</v>
+      </c>
+      <c r="V78">
+        <v>237.465</v>
+      </c>
+      <c r="W78">
+        <v>-129.81</v>
+      </c>
+      <c r="X78">
+        <v>-233.517</v>
+      </c>
+      <c r="Y78">
+        <v>50.783999999999999</v>
+      </c>
+      <c r="Z78">
+        <v>34.630000000000003</v>
+      </c>
+      <c r="AA78">
+        <v>146.05000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>161.19</v>
+      </c>
+      <c r="D79">
+        <v>561.91600000000005</v>
+      </c>
+      <c r="E79">
+        <v>378.27300000000002</v>
+      </c>
+      <c r="F79">
+        <v>366.43700000000001</v>
+      </c>
+      <c r="G79">
+        <v>2310.0230000000001</v>
+      </c>
+      <c r="H79">
+        <v>3548.9349999999999</v>
+      </c>
+      <c r="I79">
+        <v>83.519000000000005</v>
+      </c>
+      <c r="J79">
+        <v>993.66300000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>387.92599999999999</v>
+      </c>
+      <c r="O79">
+        <v>1928.992</v>
+      </c>
+      <c r="P79">
+        <v>1051.9970000000001</v>
+      </c>
+      <c r="Q79">
+        <v>-81.527000000000001</v>
+      </c>
+      <c r="R79">
+        <v>43918</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>1619.943</v>
+      </c>
+      <c r="U79">
+        <v>1638.6669999999999</v>
+      </c>
+      <c r="V79">
+        <v>209.791</v>
+      </c>
+      <c r="W79">
+        <v>-129.072</v>
+      </c>
+      <c r="X79">
+        <v>-289.83499999999998</v>
+      </c>
+      <c r="Y79">
+        <v>48.100999999999999</v>
+      </c>
+      <c r="Z79">
+        <v>15.538</v>
+      </c>
+      <c r="AA79">
+        <v>161.19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>207.298</v>
+      </c>
+      <c r="D80">
+        <v>545.36900000000003</v>
+      </c>
+      <c r="E80">
+        <v>404.77800000000002</v>
+      </c>
+      <c r="F80">
+        <v>362.36799999999999</v>
+      </c>
+      <c r="G80">
+        <v>2317.8290000000002</v>
+      </c>
+      <c r="H80">
+        <v>3629.3029999999999</v>
+      </c>
+      <c r="I80">
+        <v>91.981999999999999</v>
+      </c>
+      <c r="J80">
+        <v>994.02200000000005</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>453.334</v>
+      </c>
+      <c r="O80">
+        <v>1971.846</v>
+      </c>
+      <c r="P80">
+        <v>1052.7809999999999</v>
+      </c>
+      <c r="Q80">
+        <v>-53.238999999999997</v>
+      </c>
+      <c r="R80">
+        <v>44009</v>
+      </c>
+      <c r="S80">
+        <v>7115</v>
+      </c>
+      <c r="T80">
+        <v>1657.4570000000001</v>
+      </c>
+      <c r="U80">
+        <v>1578.67</v>
+      </c>
+      <c r="V80">
+        <v>212.32900000000001</v>
+      </c>
+      <c r="W80">
+        <v>-128.05799999999999</v>
+      </c>
+      <c r="X80">
+        <v>-191.13300000000001</v>
+      </c>
+      <c r="Y80">
+        <v>48.314</v>
+      </c>
+      <c r="Z80">
+        <v>10.388999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>207.298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>169.51400000000001</v>
+      </c>
+      <c r="D81">
+        <v>619.35699999999997</v>
+      </c>
+      <c r="E81">
+        <v>449.37599999999998</v>
+      </c>
+      <c r="F81">
+        <v>417.01400000000001</v>
+      </c>
+      <c r="G81">
+        <v>2356.9670000000001</v>
+      </c>
+      <c r="H81">
+        <v>3653.527</v>
+      </c>
+      <c r="I81">
+        <v>86.831000000000003</v>
+      </c>
+      <c r="J81">
+        <v>994.38099999999997</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>446.32</v>
+      </c>
+      <c r="O81">
+        <v>1942.508</v>
+      </c>
+      <c r="P81">
+        <v>1051.1590000000001</v>
+      </c>
+      <c r="Q81">
+        <v>16.419</v>
+      </c>
+      <c r="R81">
+        <v>44100</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>1711.019</v>
+      </c>
+      <c r="U81">
+        <v>1595.0889999999999</v>
+      </c>
+      <c r="V81">
+        <v>162.511</v>
+      </c>
+      <c r="W81">
+        <v>-128.14699999999999</v>
+      </c>
+      <c r="X81">
+        <v>-151.73400000000001</v>
+      </c>
+      <c r="Y81">
+        <v>46.104999999999997</v>
+      </c>
+      <c r="Z81">
+        <v>18.366</v>
+      </c>
+      <c r="AA81">
+        <v>169.51400000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>183.94499999999999</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>628.28800000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>485.77300000000002</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>416.42200000000003</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2589.0929999999998</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3882.87</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>96.959000000000003</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>994.74099999999999</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>456.39699999999999</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>1956.809</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>1049.825</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>201.87200000000001</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44191</v>
       </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
         <v>1926.0609999999999</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>1796.961</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>210.499</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-0.29299999999999998</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>44.223999999999997</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>8.0879999999999992</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>183.94499999999999</v>
       </c>
     </row>
